--- a/02_人物捜索アプリ/01_設計書/03_テーブル定義書/人物捜索アプリ_テーブル定義書.xlsx
+++ b/02_人物捜索アプリ/01_設計書/03_テーブル定義書/人物捜索アプリ_テーブル定義書.xlsx
@@ -1,33 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JUSTA\Desktop\会社関係\Git\msPlanning\02_人物捜索アプリ\01_設計書\03_テーブル定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C3F8DFF5-3206-4F78-B055-E7FCF7B27A6A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BBD73846-5421-4161-9B0A-271B44A13431}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="514" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="7" r:id="rId1"/>
     <sheet name="テーブル一覧" sheetId="8" r:id="rId2"/>
-    <sheet name="指名手配テーブル" sheetId="1" r:id="rId3"/>
-    <sheet name="行方不明テーブル" sheetId="5" r:id="rId4"/>
-    <sheet name="情報提供テーブル" sheetId="6" r:id="rId5"/>
-    <sheet name="都道府県マスタ" sheetId="2" r:id="rId6"/>
-    <sheet name="地区マスタ" sheetId="3" r:id="rId7"/>
-    <sheet name="コードマスタ" sheetId="4" r:id="rId8"/>
+    <sheet name="人物捜索テーブル" sheetId="9" r:id="rId3"/>
+    <sheet name="情報提供テーブル" sheetId="6" r:id="rId4"/>
+    <sheet name="都道府県マスタ" sheetId="2" r:id="rId5"/>
+    <sheet name="地区マスタ" sheetId="3" r:id="rId6"/>
+    <sheet name="コードマスタ" sheetId="4" r:id="rId7"/>
+    <sheet name="指名手配テーブル" sheetId="1" r:id="rId8"/>
+    <sheet name="行方不明テーブル" sheetId="5" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="129">
   <si>
     <t>テーブル定義書</t>
   </si>
@@ -543,41 +544,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>指名手配情報を管理するテーブル</t>
-    <rPh sb="0" eb="2">
-      <t>シメイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>テハイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>行方不明者情報を管理するテーブル</t>
-    <rPh sb="0" eb="2">
-      <t>ユクエ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>フメイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>シャ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>提供された情報を管理するテーブル</t>
     <rPh sb="0" eb="2">
       <t>テイキョウ</t>
@@ -690,6 +656,215 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人物捜索テーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_PEOPLE_SEARCH</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PEOPLE_SEARCH_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人物捜索ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>捜索対象名</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人物捜索テーブルを作成（指名手配テーブル、行方不明テーブルをマージ）</t>
+    <rPh sb="0" eb="1">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>型の見直し</t>
+    <rPh sb="0" eb="1">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ミナオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AUTO_INCREMENT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　・懸賞金：INT</t>
+    <rPh sb="2" eb="5">
+      <t>ケンショウキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>捜索対象の情報を管理するテーブル</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「人物捜索テーブル」にマージ</t>
+    <rPh sb="1" eb="5">
+      <t>ジンブツソウサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人物捜索テーブル</t>
+    <rPh sb="0" eb="2">
+      <t>ジンブツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソウサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像のバイナリデータ</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>性別</t>
+    <rPh sb="0" eb="2">
+      <t>セイベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0：男，1：女</t>
+    <rPh sb="2" eb="3">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オンナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　・フラグ：BIT(1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BIT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　・画像  ：VARBINARY(max)</t>
+    <rPh sb="2" eb="4">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARBINARY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>max</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>max</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　・ID    ：INT ※自動採番(AUTO_INCREMENT)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各テーブルの主キー、作成日時、更新日時、削除フラグ以外にNULL許可を付与</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>シュ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>キョカ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>フヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　・その他、VCHARの桁数調整</t>
+    <rPh sb="4" eb="5">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケタスウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>チョウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -699,9 +874,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="yyyy&quot;年&quot;mm&quot;月&quot;dd&quot;日&quot;"/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;mm&quot;月&quot;dd&quot;日&quot;"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -754,8 +929,15 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFEAEAEA"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -780,8 +962,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -993,6 +1187,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1001,18 +1210,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -1041,54 +1244,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1098,6 +1259,183 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="5" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="5" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="5" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="5" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="5" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1111,6 +1449,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFEAEAEA"/>
       <color rgb="FF99CCFF"/>
       <color rgb="FFCCFFCC"/>
     </mruColors>
@@ -1508,7 +1847,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624A1ED5-21F9-4876-90D2-9BE2633D6EA6}">
-  <dimension ref="A1:AE28"/>
+  <dimension ref="A1:AE29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1518,959 +1857,1111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
-      <c r="A1" s="6"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="11"/>
+      <c r="A1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="7"/>
+      <c r="AE1" s="9"/>
     </row>
     <row r="2" spans="1:31">
-      <c r="A2" s="12"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="13"/>
-      <c r="AB2" s="13"/>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="13"/>
-      <c r="AE2" s="15"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="13"/>
     </row>
     <row r="3" spans="1:31">
-      <c r="A3" s="12"/>
-      <c r="B3" s="37" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="38"/>
-      <c r="AC3" s="38"/>
-      <c r="AD3" s="39"/>
-      <c r="AE3" s="15"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="28"/>
+      <c r="X3" s="28"/>
+      <c r="Y3" s="28"/>
+      <c r="Z3" s="28"/>
+      <c r="AA3" s="28"/>
+      <c r="AB3" s="28"/>
+      <c r="AC3" s="28"/>
+      <c r="AD3" s="29"/>
+      <c r="AE3" s="13"/>
     </row>
     <row r="4" spans="1:31">
-      <c r="A4" s="12"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="41"/>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="41"/>
-      <c r="Z4" s="41"/>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="41"/>
-      <c r="AC4" s="41"/>
-      <c r="AD4" s="42"/>
-      <c r="AE4" s="15"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="32"/>
+      <c r="AE4" s="13"/>
     </row>
     <row r="5" spans="1:31">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
-      <c r="AA5" s="13"/>
-      <c r="AB5" s="13"/>
-      <c r="AC5" s="13"/>
-      <c r="AD5" s="13"/>
-      <c r="AE5" s="15"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="13"/>
     </row>
     <row r="6" spans="1:31">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="13"/>
-      <c r="AB6" s="13"/>
-      <c r="AC6" s="13"/>
-      <c r="AD6" s="13"/>
-      <c r="AE6" s="15"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="13"/>
     </row>
     <row r="7" spans="1:31">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="13"/>
-      <c r="AA7" s="13"/>
-      <c r="AB7" s="13"/>
-      <c r="AC7" s="13"/>
-      <c r="AD7" s="13"/>
-      <c r="AE7" s="15"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="13"/>
     </row>
     <row r="8" spans="1:31">
-      <c r="A8" s="12"/>
-      <c r="B8" s="18" t="s">
+      <c r="A8" s="10"/>
+      <c r="B8" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="13"/>
-      <c r="AA8" s="13"/>
-      <c r="AB8" s="13"/>
-      <c r="AC8" s="13"/>
-      <c r="AD8" s="13"/>
-      <c r="AE8" s="15"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="13"/>
     </row>
     <row r="9" spans="1:31">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="13"/>
-      <c r="AA9" s="13"/>
-      <c r="AB9" s="13"/>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="13"/>
-      <c r="AE9" s="15"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="13"/>
     </row>
     <row r="10" spans="1:31">
-      <c r="A10" s="12"/>
-      <c r="B10" s="44" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="44" t="s">
+      <c r="C10" s="25"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="44" t="s">
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="45"/>
-      <c r="U10" s="45"/>
-      <c r="V10" s="45"/>
-      <c r="W10" s="45"/>
-      <c r="X10" s="45"/>
-      <c r="Y10" s="45"/>
-      <c r="Z10" s="45"/>
-      <c r="AA10" s="46"/>
-      <c r="AB10" s="44" t="s">
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="25"/>
+      <c r="W10" s="25"/>
+      <c r="X10" s="25"/>
+      <c r="Y10" s="25"/>
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="AC10" s="45"/>
-      <c r="AD10" s="46"/>
-      <c r="AE10" s="15"/>
+      <c r="AC10" s="25"/>
+      <c r="AD10" s="26"/>
+      <c r="AE10" s="13"/>
     </row>
     <row r="11" spans="1:31">
-      <c r="A11" s="12"/>
-      <c r="B11" s="24" t="s">
+      <c r="A11" s="10"/>
+      <c r="B11" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="27">
+      <c r="C11" s="36"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="38">
         <v>43239</v>
       </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="21" t="s">
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="22"/>
-      <c r="V11" s="22"/>
-      <c r="W11" s="22"/>
-      <c r="X11" s="22"/>
-      <c r="Y11" s="22"/>
-      <c r="Z11" s="22"/>
-      <c r="AA11" s="23"/>
-      <c r="AB11" s="30" t="s">
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="42"/>
+      <c r="W11" s="42"/>
+      <c r="X11" s="42"/>
+      <c r="Y11" s="42"/>
+      <c r="Z11" s="42"/>
+      <c r="AA11" s="43"/>
+      <c r="AB11" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="AC11" s="31"/>
-      <c r="AD11" s="32"/>
-      <c r="AE11" s="15"/>
+      <c r="AC11" s="45"/>
+      <c r="AD11" s="46"/>
+      <c r="AE11" s="13"/>
     </row>
     <row r="12" spans="1:31">
-      <c r="A12" s="12"/>
-      <c r="B12" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="27">
+      <c r="A12" s="10"/>
+      <c r="B12" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="36"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38">
         <v>43254</v>
       </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
-      <c r="U12" s="22"/>
-      <c r="V12" s="22"/>
-      <c r="W12" s="22"/>
-      <c r="X12" s="22"/>
-      <c r="Y12" s="22"/>
-      <c r="Z12" s="22"/>
-      <c r="AA12" s="23"/>
-      <c r="AB12" s="30" t="s">
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="42"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="42"/>
+      <c r="W12" s="42"/>
+      <c r="X12" s="42"/>
+      <c r="Y12" s="42"/>
+      <c r="Z12" s="42"/>
+      <c r="AA12" s="43"/>
+      <c r="AB12" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="AC12" s="31"/>
-      <c r="AD12" s="32"/>
-      <c r="AE12" s="15"/>
+      <c r="AC12" s="45"/>
+      <c r="AD12" s="46"/>
+      <c r="AE12" s="13"/>
     </row>
     <row r="13" spans="1:31">
-      <c r="A13" s="12"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
-      <c r="U13" s="22"/>
-      <c r="V13" s="22"/>
-      <c r="W13" s="22"/>
-      <c r="X13" s="22"/>
-      <c r="Y13" s="22"/>
-      <c r="Z13" s="22"/>
-      <c r="AA13" s="23"/>
-      <c r="AB13" s="30"/>
-      <c r="AC13" s="31"/>
-      <c r="AD13" s="32"/>
-      <c r="AE13" s="15"/>
-    </row>
-    <row r="14" spans="1:31">
-      <c r="A14" s="12"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
-      <c r="U14" s="22"/>
-      <c r="V14" s="22"/>
-      <c r="W14" s="22"/>
-      <c r="X14" s="22"/>
-      <c r="Y14" s="22"/>
-      <c r="Z14" s="22"/>
-      <c r="AA14" s="23"/>
-      <c r="AB14" s="30"/>
-      <c r="AC14" s="31"/>
-      <c r="AD14" s="32"/>
-      <c r="AE14" s="15"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="36"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="38">
+        <v>43303</v>
+      </c>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="42"/>
+      <c r="T13" s="42"/>
+      <c r="U13" s="42"/>
+      <c r="V13" s="42"/>
+      <c r="W13" s="42"/>
+      <c r="X13" s="42"/>
+      <c r="Y13" s="42"/>
+      <c r="Z13" s="42"/>
+      <c r="AA13" s="43"/>
+      <c r="AB13" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC13" s="45"/>
+      <c r="AD13" s="46"/>
+      <c r="AE13" s="13"/>
+    </row>
+    <row r="14" spans="1:31" ht="12" customHeight="1">
+      <c r="A14" s="10"/>
+      <c r="B14" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="48"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="50">
+        <v>43303</v>
+      </c>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="54"/>
+      <c r="R14" s="54"/>
+      <c r="S14" s="54"/>
+      <c r="T14" s="54"/>
+      <c r="U14" s="54"/>
+      <c r="V14" s="54"/>
+      <c r="W14" s="54"/>
+      <c r="X14" s="54"/>
+      <c r="Y14" s="54"/>
+      <c r="Z14" s="54"/>
+      <c r="AA14" s="55"/>
+      <c r="AB14" s="79" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC14" s="80"/>
+      <c r="AD14" s="81"/>
+      <c r="AE14" s="13"/>
     </row>
     <row r="15" spans="1:31">
-      <c r="A15" s="12"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="22"/>
-      <c r="U15" s="22"/>
-      <c r="V15" s="22"/>
-      <c r="W15" s="22"/>
-      <c r="X15" s="22"/>
-      <c r="Y15" s="22"/>
-      <c r="Z15" s="22"/>
-      <c r="AA15" s="23"/>
-      <c r="AB15" s="30"/>
-      <c r="AC15" s="31"/>
-      <c r="AD15" s="32"/>
-      <c r="AE15" s="15"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="67" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="68"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="70">
+        <v>43303</v>
+      </c>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="64" t="s">
+        <v>126</v>
+      </c>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="65"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="65"/>
+      <c r="O15" s="65"/>
+      <c r="P15" s="65"/>
+      <c r="Q15" s="65"/>
+      <c r="R15" s="65"/>
+      <c r="S15" s="65"/>
+      <c r="T15" s="65"/>
+      <c r="U15" s="65"/>
+      <c r="V15" s="65"/>
+      <c r="W15" s="65"/>
+      <c r="X15" s="65"/>
+      <c r="Y15" s="65"/>
+      <c r="Z15" s="65"/>
+      <c r="AA15" s="66"/>
+      <c r="AB15" s="82"/>
+      <c r="AC15" s="83"/>
+      <c r="AD15" s="84"/>
+      <c r="AE15" s="13"/>
     </row>
     <row r="16" spans="1:31">
-      <c r="A16" s="12"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="22"/>
-      <c r="V16" s="22"/>
-      <c r="W16" s="22"/>
-      <c r="X16" s="22"/>
-      <c r="Y16" s="22"/>
-      <c r="Z16" s="22"/>
-      <c r="AA16" s="23"/>
-      <c r="AB16" s="30"/>
-      <c r="AC16" s="31"/>
-      <c r="AD16" s="32"/>
-      <c r="AE16" s="15"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="67" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="68"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="70">
+        <v>43303</v>
+      </c>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="65"/>
+      <c r="O16" s="65"/>
+      <c r="P16" s="65"/>
+      <c r="Q16" s="65"/>
+      <c r="R16" s="65"/>
+      <c r="S16" s="65"/>
+      <c r="T16" s="65"/>
+      <c r="U16" s="65"/>
+      <c r="V16" s="65"/>
+      <c r="W16" s="65"/>
+      <c r="X16" s="65"/>
+      <c r="Y16" s="65"/>
+      <c r="Z16" s="65"/>
+      <c r="AA16" s="66"/>
+      <c r="AB16" s="82"/>
+      <c r="AC16" s="83"/>
+      <c r="AD16" s="84"/>
+      <c r="AE16" s="13"/>
     </row>
     <row r="17" spans="1:31">
-      <c r="A17" s="12"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="22"/>
-      <c r="U17" s="22"/>
-      <c r="V17" s="22"/>
-      <c r="W17" s="22"/>
-      <c r="X17" s="22"/>
-      <c r="Y17" s="22"/>
-      <c r="Z17" s="22"/>
-      <c r="AA17" s="23"/>
-      <c r="AB17" s="30"/>
-      <c r="AC17" s="31"/>
-      <c r="AD17" s="32"/>
-      <c r="AE17" s="15"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="67" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="68"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="70">
+        <v>43303</v>
+      </c>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="64" t="s">
+        <v>122</v>
+      </c>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="65"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="65"/>
+      <c r="O17" s="65"/>
+      <c r="P17" s="65"/>
+      <c r="Q17" s="65"/>
+      <c r="R17" s="65"/>
+      <c r="S17" s="65"/>
+      <c r="T17" s="65"/>
+      <c r="U17" s="65"/>
+      <c r="V17" s="65"/>
+      <c r="W17" s="65"/>
+      <c r="X17" s="65"/>
+      <c r="Y17" s="65"/>
+      <c r="Z17" s="65"/>
+      <c r="AA17" s="66"/>
+      <c r="AB17" s="82"/>
+      <c r="AC17" s="83"/>
+      <c r="AD17" s="84"/>
+      <c r="AE17" s="13"/>
     </row>
     <row r="18" spans="1:31">
-      <c r="A18" s="12"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="22"/>
-      <c r="U18" s="22"/>
-      <c r="V18" s="22"/>
-      <c r="W18" s="22"/>
-      <c r="X18" s="22"/>
-      <c r="Y18" s="22"/>
-      <c r="Z18" s="22"/>
-      <c r="AA18" s="23"/>
-      <c r="AB18" s="30"/>
-      <c r="AC18" s="31"/>
-      <c r="AD18" s="32"/>
-      <c r="AE18" s="15"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="67" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="68"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="70">
+        <v>43303</v>
+      </c>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="64" t="s">
+        <v>120</v>
+      </c>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="65"/>
+      <c r="Q18" s="65"/>
+      <c r="R18" s="65"/>
+      <c r="S18" s="65"/>
+      <c r="T18" s="65"/>
+      <c r="U18" s="65"/>
+      <c r="V18" s="65"/>
+      <c r="W18" s="65"/>
+      <c r="X18" s="65"/>
+      <c r="Y18" s="65"/>
+      <c r="Z18" s="65"/>
+      <c r="AA18" s="66"/>
+      <c r="AB18" s="82"/>
+      <c r="AC18" s="83"/>
+      <c r="AD18" s="84"/>
+      <c r="AE18" s="13"/>
     </row>
     <row r="19" spans="1:31">
-      <c r="A19" s="12"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="22"/>
-      <c r="T19" s="22"/>
-      <c r="U19" s="22"/>
-      <c r="V19" s="22"/>
-      <c r="W19" s="22"/>
-      <c r="X19" s="22"/>
-      <c r="Y19" s="22"/>
-      <c r="Z19" s="22"/>
-      <c r="AA19" s="23"/>
-      <c r="AB19" s="30"/>
-      <c r="AC19" s="31"/>
-      <c r="AD19" s="32"/>
-      <c r="AE19" s="15"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="73" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="74"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="76">
+        <v>43303</v>
+      </c>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="57"/>
+      <c r="R19" s="57"/>
+      <c r="S19" s="57"/>
+      <c r="T19" s="57"/>
+      <c r="U19" s="57"/>
+      <c r="V19" s="57"/>
+      <c r="W19" s="57"/>
+      <c r="X19" s="57"/>
+      <c r="Y19" s="57"/>
+      <c r="Z19" s="57"/>
+      <c r="AA19" s="58"/>
+      <c r="AB19" s="85"/>
+      <c r="AC19" s="86"/>
+      <c r="AD19" s="87"/>
+      <c r="AE19" s="13"/>
     </row>
     <row r="20" spans="1:31">
-      <c r="A20" s="12"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="22"/>
-      <c r="T20" s="22"/>
-      <c r="U20" s="22"/>
-      <c r="V20" s="22"/>
-      <c r="W20" s="22"/>
-      <c r="X20" s="22"/>
-      <c r="Y20" s="22"/>
-      <c r="Z20" s="22"/>
-      <c r="AA20" s="23"/>
-      <c r="AB20" s="30"/>
-      <c r="AC20" s="31"/>
-      <c r="AD20" s="32"/>
-      <c r="AE20" s="15"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="36"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="38">
+        <v>43303</v>
+      </c>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="42"/>
+      <c r="T20" s="42"/>
+      <c r="U20" s="42"/>
+      <c r="V20" s="42"/>
+      <c r="W20" s="42"/>
+      <c r="X20" s="42"/>
+      <c r="Y20" s="42"/>
+      <c r="Z20" s="42"/>
+      <c r="AA20" s="43"/>
+      <c r="AB20" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC20" s="45"/>
+      <c r="AD20" s="46"/>
+      <c r="AE20" s="13"/>
     </row>
     <row r="21" spans="1:31">
-      <c r="A21" s="12"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="22"/>
-      <c r="S21" s="22"/>
-      <c r="T21" s="22"/>
-      <c r="U21" s="22"/>
-      <c r="V21" s="22"/>
-      <c r="W21" s="22"/>
-      <c r="X21" s="22"/>
-      <c r="Y21" s="22"/>
-      <c r="Z21" s="22"/>
-      <c r="AA21" s="23"/>
-      <c r="AB21" s="30"/>
-      <c r="AC21" s="31"/>
-      <c r="AD21" s="32"/>
-      <c r="AE21" s="15"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="42"/>
+      <c r="S21" s="42"/>
+      <c r="T21" s="42"/>
+      <c r="U21" s="42"/>
+      <c r="V21" s="42"/>
+      <c r="W21" s="42"/>
+      <c r="X21" s="42"/>
+      <c r="Y21" s="42"/>
+      <c r="Z21" s="42"/>
+      <c r="AA21" s="43"/>
+      <c r="AB21" s="44"/>
+      <c r="AC21" s="45"/>
+      <c r="AD21" s="46"/>
+      <c r="AE21" s="13"/>
     </row>
     <row r="22" spans="1:31">
-      <c r="A22" s="12"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="22"/>
-      <c r="T22" s="22"/>
-      <c r="U22" s="22"/>
-      <c r="V22" s="22"/>
-      <c r="W22" s="22"/>
-      <c r="X22" s="22"/>
-      <c r="Y22" s="22"/>
-      <c r="Z22" s="22"/>
-      <c r="AA22" s="23"/>
-      <c r="AB22" s="30"/>
-      <c r="AC22" s="31"/>
-      <c r="AD22" s="32"/>
-      <c r="AE22" s="15"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="42"/>
+      <c r="R22" s="42"/>
+      <c r="S22" s="42"/>
+      <c r="T22" s="42"/>
+      <c r="U22" s="42"/>
+      <c r="V22" s="42"/>
+      <c r="W22" s="42"/>
+      <c r="X22" s="42"/>
+      <c r="Y22" s="42"/>
+      <c r="Z22" s="42"/>
+      <c r="AA22" s="43"/>
+      <c r="AB22" s="44"/>
+      <c r="AC22" s="45"/>
+      <c r="AD22" s="46"/>
+      <c r="AE22" s="13"/>
     </row>
     <row r="23" spans="1:31">
-      <c r="A23" s="12"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="22"/>
-      <c r="S23" s="22"/>
-      <c r="T23" s="22"/>
-      <c r="U23" s="22"/>
-      <c r="V23" s="22"/>
-      <c r="W23" s="22"/>
-      <c r="X23" s="22"/>
-      <c r="Y23" s="22"/>
-      <c r="Z23" s="22"/>
-      <c r="AA23" s="23"/>
-      <c r="AB23" s="30"/>
-      <c r="AC23" s="31"/>
-      <c r="AD23" s="32"/>
-      <c r="AE23" s="15"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="42"/>
+      <c r="R23" s="42"/>
+      <c r="S23" s="42"/>
+      <c r="T23" s="42"/>
+      <c r="U23" s="42"/>
+      <c r="V23" s="42"/>
+      <c r="W23" s="42"/>
+      <c r="X23" s="42"/>
+      <c r="Y23" s="42"/>
+      <c r="Z23" s="42"/>
+      <c r="AA23" s="43"/>
+      <c r="AB23" s="44"/>
+      <c r="AC23" s="45"/>
+      <c r="AD23" s="46"/>
+      <c r="AE23" s="13"/>
     </row>
     <row r="24" spans="1:31">
-      <c r="A24" s="12"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="22"/>
-      <c r="S24" s="22"/>
-      <c r="T24" s="22"/>
-      <c r="U24" s="22"/>
-      <c r="V24" s="22"/>
-      <c r="W24" s="22"/>
-      <c r="X24" s="22"/>
-      <c r="Y24" s="22"/>
-      <c r="Z24" s="22"/>
-      <c r="AA24" s="23"/>
-      <c r="AB24" s="30"/>
-      <c r="AC24" s="31"/>
-      <c r="AD24" s="32"/>
-      <c r="AE24" s="15"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
+      <c r="S24" s="42"/>
+      <c r="T24" s="42"/>
+      <c r="U24" s="42"/>
+      <c r="V24" s="42"/>
+      <c r="W24" s="42"/>
+      <c r="X24" s="42"/>
+      <c r="Y24" s="42"/>
+      <c r="Z24" s="42"/>
+      <c r="AA24" s="43"/>
+      <c r="AB24" s="44"/>
+      <c r="AC24" s="45"/>
+      <c r="AD24" s="46"/>
+      <c r="AE24" s="13"/>
     </row>
     <row r="25" spans="1:31">
-      <c r="A25" s="12"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="22"/>
-      <c r="S25" s="22"/>
-      <c r="T25" s="22"/>
-      <c r="U25" s="22"/>
-      <c r="V25" s="22"/>
-      <c r="W25" s="22"/>
-      <c r="X25" s="22"/>
-      <c r="Y25" s="22"/>
-      <c r="Z25" s="22"/>
-      <c r="AA25" s="23"/>
-      <c r="AB25" s="30"/>
-      <c r="AC25" s="31"/>
-      <c r="AD25" s="32"/>
-      <c r="AE25" s="15"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="42"/>
+      <c r="R25" s="42"/>
+      <c r="S25" s="42"/>
+      <c r="T25" s="42"/>
+      <c r="U25" s="42"/>
+      <c r="V25" s="42"/>
+      <c r="W25" s="42"/>
+      <c r="X25" s="42"/>
+      <c r="Y25" s="42"/>
+      <c r="Z25" s="42"/>
+      <c r="AA25" s="43"/>
+      <c r="AB25" s="44"/>
+      <c r="AC25" s="45"/>
+      <c r="AD25" s="46"/>
+      <c r="AE25" s="13"/>
     </row>
     <row r="26" spans="1:31">
-      <c r="A26" s="12"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="22"/>
-      <c r="S26" s="22"/>
-      <c r="T26" s="22"/>
-      <c r="U26" s="22"/>
-      <c r="V26" s="22"/>
-      <c r="W26" s="22"/>
-      <c r="X26" s="22"/>
-      <c r="Y26" s="22"/>
-      <c r="Z26" s="22"/>
-      <c r="AA26" s="23"/>
-      <c r="AB26" s="30"/>
-      <c r="AC26" s="31"/>
-      <c r="AD26" s="32"/>
-      <c r="AE26" s="15"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="42"/>
+      <c r="S26" s="42"/>
+      <c r="T26" s="42"/>
+      <c r="U26" s="42"/>
+      <c r="V26" s="42"/>
+      <c r="W26" s="42"/>
+      <c r="X26" s="42"/>
+      <c r="Y26" s="42"/>
+      <c r="Z26" s="42"/>
+      <c r="AA26" s="43"/>
+      <c r="AB26" s="44"/>
+      <c r="AC26" s="45"/>
+      <c r="AD26" s="46"/>
+      <c r="AE26" s="13"/>
     </row>
     <row r="27" spans="1:31">
-      <c r="A27" s="12"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="22"/>
-      <c r="S27" s="22"/>
-      <c r="T27" s="22"/>
-      <c r="U27" s="22"/>
-      <c r="V27" s="22"/>
-      <c r="W27" s="22"/>
-      <c r="X27" s="22"/>
-      <c r="Y27" s="22"/>
-      <c r="Z27" s="22"/>
-      <c r="AA27" s="23"/>
-      <c r="AB27" s="30"/>
-      <c r="AC27" s="31"/>
-      <c r="AD27" s="32"/>
-      <c r="AE27" s="15"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="42"/>
+      <c r="R27" s="42"/>
+      <c r="S27" s="42"/>
+      <c r="T27" s="42"/>
+      <c r="U27" s="42"/>
+      <c r="V27" s="42"/>
+      <c r="W27" s="42"/>
+      <c r="X27" s="42"/>
+      <c r="Y27" s="42"/>
+      <c r="Z27" s="42"/>
+      <c r="AA27" s="43"/>
+      <c r="AB27" s="44"/>
+      <c r="AC27" s="45"/>
+      <c r="AD27" s="46"/>
+      <c r="AE27" s="13"/>
     </row>
     <row r="28" spans="1:31">
-      <c r="A28" s="16"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="19"/>
-      <c r="S28" s="19"/>
-      <c r="T28" s="19"/>
-      <c r="U28" s="19"/>
-      <c r="V28" s="19"/>
-      <c r="W28" s="19"/>
-      <c r="X28" s="19"/>
-      <c r="Y28" s="19"/>
-      <c r="Z28" s="19"/>
-      <c r="AA28" s="19"/>
-      <c r="AB28" s="19"/>
-      <c r="AC28" s="19"/>
-      <c r="AD28" s="19"/>
-      <c r="AE28" s="17"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="11"/>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="11"/>
+      <c r="AA28" s="11"/>
+      <c r="AB28" s="11"/>
+      <c r="AC28" s="11"/>
+      <c r="AD28" s="11"/>
+      <c r="AE28" s="13"/>
+    </row>
+    <row r="29" spans="1:31">
+      <c r="A29" s="14"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="17"/>
+      <c r="V29" s="17"/>
+      <c r="W29" s="17"/>
+      <c r="X29" s="17"/>
+      <c r="Y29" s="17"/>
+      <c r="Z29" s="17"/>
+      <c r="AA29" s="17"/>
+      <c r="AB29" s="17"/>
+      <c r="AC29" s="17"/>
+      <c r="AD29" s="17"/>
+      <c r="AE29" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="73">
+    <mergeCell ref="B3:AD4"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="AB10:AD10"/>
+    <mergeCell ref="I10:AA10"/>
+    <mergeCell ref="I11:AA11"/>
+    <mergeCell ref="AB11:AD11"/>
+    <mergeCell ref="I13:AA13"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="AB13:AD13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="I12:AA12"/>
+    <mergeCell ref="AB12:AD12"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="I26:AA26"/>
+    <mergeCell ref="AB26:AD26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="I27:AA27"/>
+    <mergeCell ref="AB27:AD27"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="I24:AA24"/>
+    <mergeCell ref="AB24:AD24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="I25:AA25"/>
+    <mergeCell ref="AB25:AD25"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="I22:AA22"/>
+    <mergeCell ref="AB22:AD22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="I23:AA23"/>
+    <mergeCell ref="AB23:AD23"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="I20:AA20"/>
+    <mergeCell ref="AB20:AD20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="I21:AA21"/>
+    <mergeCell ref="AB21:AD21"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="I17:AA17"/>
+    <mergeCell ref="AB17:AD17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="I19:AA19"/>
+    <mergeCell ref="AB19:AD19"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="I18:AA18"/>
+    <mergeCell ref="AB18:AD18"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="I16:AA16"/>
+    <mergeCell ref="AB16:AD16"/>
     <mergeCell ref="I14:AA14"/>
     <mergeCell ref="AB14:AD14"/>
     <mergeCell ref="B15:D15"/>
@@ -2479,71 +2970,6 @@
     <mergeCell ref="AB15:AD15"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="E14:H14"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="I16:AA16"/>
-    <mergeCell ref="AB16:AD16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="I17:AA17"/>
-    <mergeCell ref="AB17:AD17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="I18:AA18"/>
-    <mergeCell ref="AB18:AD18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="I19:AA19"/>
-    <mergeCell ref="AB19:AD19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="I20:AA20"/>
-    <mergeCell ref="AB20:AD20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="I21:AA21"/>
-    <mergeCell ref="AB21:AD21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="I22:AA22"/>
-    <mergeCell ref="AB22:AD22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="I23:AA23"/>
-    <mergeCell ref="AB23:AD23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="I24:AA24"/>
-    <mergeCell ref="AB24:AD24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="I25:AA25"/>
-    <mergeCell ref="AB25:AD25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="I26:AA26"/>
-    <mergeCell ref="AB26:AD26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="I27:AA27"/>
-    <mergeCell ref="AB27:AD27"/>
-    <mergeCell ref="I13:AA13"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="AB13:AD13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="AB10:AD10"/>
-    <mergeCell ref="I10:AA10"/>
-    <mergeCell ref="I11:AA11"/>
-    <mergeCell ref="I12:AA12"/>
-    <mergeCell ref="AB11:AD11"/>
-    <mergeCell ref="AB12:AD12"/>
-    <mergeCell ref="B3:AD4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2553,7 +2979,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4801AC7B-06DF-4D42-A00E-E6E3B8BB793B}">
-  <dimension ref="B3:E15"/>
+  <dimension ref="B3:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -2569,162 +2995,176 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:5">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="23" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="33">
-        <f>ROW()-3</f>
+      <c r="B4" s="19">
+        <f t="shared" ref="B4:B10" si="0">ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="C4" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="33" t="s">
+      <c r="C4" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="19">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="19" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="33">
-        <f t="shared" ref="B5:B9" si="0">ROW()-3</f>
-        <v>2</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>90</v>
-      </c>
-    </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="33">
+      <c r="B6" s="19">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C6" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>91</v>
+      <c r="C6" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="33">
+      <c r="B7" s="19">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C7" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="33" t="s">
+      <c r="C7" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="33">
+      <c r="B8" s="19">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C8" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>94</v>
+      <c r="C8" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="33">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>93</v>
+      <c r="B9" s="59" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="59" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
+      <c r="B10" s="59" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="59" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="指名手配テーブル!A1" display="指名手配テーブル" xr:uid="{87AAD112-0BFC-44D1-8738-CB155DA496A3}"/>
-    <hyperlink ref="C5" location="行方不明テーブル!A1" display="行方不明テーブル" xr:uid="{8B1C6B46-C325-4DAB-9698-CFAA2E0919F4}"/>
-    <hyperlink ref="C6" location="情報提供テーブル!A1" display="情報提供テーブル" xr:uid="{65DC42BC-B36D-4E7F-9863-E23D3786DAB4}"/>
-    <hyperlink ref="C7" location="都道府県マスタ!A1" display="都道府県マスタ" xr:uid="{7DF0C86A-91E2-48B9-91D8-3FF351372C5D}"/>
-    <hyperlink ref="C8" location="地区マスタ!A1" display="地区マスタ" xr:uid="{3DB208F5-45E0-43F0-8555-A2D040091D99}"/>
-    <hyperlink ref="C9" location="コードマスタ!A1" display="コードマスタ" xr:uid="{C3509747-4091-4CCB-AA46-D90AFB040686}"/>
+    <hyperlink ref="C9" location="指名手配テーブル!A1" display="指名手配テーブル" xr:uid="{87AAD112-0BFC-44D1-8738-CB155DA496A3}"/>
+    <hyperlink ref="C10" location="行方不明テーブル!A1" display="行方不明テーブル" xr:uid="{8B1C6B46-C325-4DAB-9698-CFAA2E0919F4}"/>
+    <hyperlink ref="C5" location="情報提供テーブル!A1" display="情報提供テーブル" xr:uid="{65DC42BC-B36D-4E7F-9863-E23D3786DAB4}"/>
+    <hyperlink ref="C6" location="都道府県マスタ!A1" display="都道府県マスタ" xr:uid="{7DF0C86A-91E2-48B9-91D8-3FF351372C5D}"/>
+    <hyperlink ref="C7" location="地区マスタ!A1" display="地区マスタ" xr:uid="{3DB208F5-45E0-43F0-8555-A2D040091D99}"/>
+    <hyperlink ref="C8" location="コードマスタ!A1" display="コードマスタ" xr:uid="{C3509747-4091-4CCB-AA46-D90AFB040686}"/>
+    <hyperlink ref="C4" location="人物捜索テーブル!A1" display="人物捜索テーブル" xr:uid="{8685CFE2-CF1F-4DF3-817F-25814F689FE5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B5D46C-61E6-4538-9FC8-07D599732CC1}">
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2733,8 +3173,7 @@
     <col min="1" max="1" width="6.28515625" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
     <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
     <col min="10" max="10" width="29" customWidth="1"/>
   </cols>
@@ -2748,26 +3187,26 @@
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="5"/>
+      <c r="C3" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="34"/>
     </row>
     <row r="4" spans="1:10">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="5"/>
+      <c r="C4" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="34"/>
     </row>
     <row r="5" spans="1:10">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="34"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
@@ -2807,32 +3246,32 @@
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="2">
-        <v>6</v>
-      </c>
-      <c r="F8" s="35"/>
+        <v>109</v>
+      </c>
+      <c r="E8" s="62"/>
+      <c r="F8" s="21"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2">
         <v>1</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="J8" s="2" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="2">
-        <f t="shared" ref="A9:A17" si="0">ROW()-7</f>
+        <f t="shared" ref="A9:A18" si="0">ROW()-7</f>
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>58</v>
@@ -2840,10 +3279,12 @@
       <c r="D9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="2">
-        <v>20</v>
-      </c>
-      <c r="F9" s="35"/>
+      <c r="E9" s="62">
+        <v>40</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>93</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -2854,23 +3295,27 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>40</v>
+      <c r="B10" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="61" t="s">
+        <v>118</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="2">
-        <v>10</v>
-      </c>
-      <c r="F10" s="35"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="E10" s="63">
+        <v>1</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="2">
@@ -2878,18 +3323,18 @@
         <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="2">
-        <v>10</v>
-      </c>
-      <c r="F11" s="35"/>
+        <v>109</v>
+      </c>
+      <c r="E11" s="62"/>
+      <c r="F11" s="21" t="s">
+        <v>93</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -2901,18 +3346,20 @@
         <v>5</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="2">
-        <v>600</v>
-      </c>
-      <c r="F12" s="35"/>
+      <c r="E12" s="62">
+        <v>40</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>93</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -2924,24 +3371,24 @@
         <v>6</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="2">
-        <v>50</v>
-      </c>
-      <c r="F13" s="35"/>
+      <c r="E13" s="62">
+        <v>600</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>93</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="2">
@@ -2949,22 +3396,26 @@
         <v>7</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="2">
-        <v>2</v>
-      </c>
-      <c r="F14" s="35"/>
+        <v>123</v>
+      </c>
+      <c r="E14" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>93</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="J14" s="2" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="2">
@@ -2972,16 +3423,20 @@
         <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="35"/>
+        <v>19</v>
+      </c>
+      <c r="E15" s="62">
+        <v>2</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>93</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -2993,16 +3448,16 @@
         <v>9</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="35"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="21"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -3014,41 +3469,59 @@
         <v>10</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="2">
-        <v>1</v>
-      </c>
-      <c r="F17" s="35"/>
+        <v>25</v>
+      </c>
+      <c r="E17" s="62"/>
+      <c r="F17" s="21"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="36" t="s">
-        <v>96</v>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E18" s="62">
+        <v>1</v>
+      </c>
+      <c r="F18" s="21"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="22" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="3">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C3:D3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3058,7 +3531,7 @@
     <col min="1" max="1" width="6.28515625" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
     <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="8" width="10.28515625" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
     <col min="10" max="10" width="29" customWidth="1"/>
@@ -3073,26 +3546,26 @@
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="5"/>
+      <c r="C3" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="34"/>
     </row>
     <row r="4" spans="1:10">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="5"/>
+      <c r="C4" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="34"/>
     </row>
     <row r="5" spans="1:10">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="34"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
@@ -3132,24 +3605,24 @@
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="2">
-        <v>6</v>
-      </c>
-      <c r="F8" s="35"/>
+        <v>109</v>
+      </c>
+      <c r="E8" s="62"/>
+      <c r="F8" s="21"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2">
         <v>1</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="J8" s="2" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="2">
@@ -3157,22 +3630,26 @@
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="2">
-        <v>20</v>
-      </c>
-      <c r="F9" s="35"/>
+      <c r="E9" s="62">
+        <v>60</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>93</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="J9" s="2" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="2">
@@ -3180,18 +3657,20 @@
         <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="2">
-        <v>600</v>
-      </c>
-      <c r="F10" s="35"/>
+      <c r="E10" s="62">
+        <v>40</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>93</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -3203,23 +3682,25 @@
         <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="2">
-        <v>50</v>
-      </c>
-      <c r="F11" s="35"/>
+        <v>123</v>
+      </c>
+      <c r="E11" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>93</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -3228,18 +3709,20 @@
         <v>5</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="2">
-        <v>2</v>
-      </c>
-      <c r="F12" s="35"/>
+      <c r="E12" s="62">
+        <v>600</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>93</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -3259,8 +3742,8 @@
       <c r="D13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="35"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="21"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -3280,8 +3763,8 @@
       <c r="D14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="35"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="21"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -3299,17 +3782,17 @@
         <v>28</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="2">
+        <v>121</v>
+      </c>
+      <c r="E15" s="62">
         <v>1</v>
       </c>
-      <c r="F15" s="35"/>
+      <c r="F15" s="21"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="36" t="s">
-        <v>96</v>
+      <c r="J15" s="22" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -3327,8 +3810,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3337,7 +3820,7 @@
     <col min="1" max="1" width="6.28515625" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
     <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="8" width="10.28515625" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
     <col min="10" max="10" width="29" customWidth="1"/>
@@ -3352,26 +3835,26 @@
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="5"/>
+      <c r="C3" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="34"/>
     </row>
     <row r="4" spans="1:10">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="5"/>
+      <c r="C4" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="34"/>
     </row>
     <row r="5" spans="1:10">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="34"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
@@ -3407,22 +3890,22 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="2">
-        <f>ROW()-7</f>
+        <f t="shared" ref="A8:A13" si="0">ROW()-7</f>
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="2">
-        <v>6</v>
-      </c>
-      <c r="F8" s="35"/>
+        <v>19</v>
+      </c>
+      <c r="E8" s="62">
+        <v>2</v>
+      </c>
+      <c r="F8" s="21"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2">
         <v>1</v>
@@ -3432,28 +3915,26 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="2">
-        <f t="shared" ref="A9:A15" si="0">ROW()-7</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="2">
-        <v>30</v>
-      </c>
-      <c r="F9" s="35"/>
+      <c r="E9" s="62">
+        <v>20</v>
+      </c>
+      <c r="F9" s="21"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="2" t="s">
-        <v>98</v>
-      </c>
+      <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="2">
@@ -3461,18 +3942,18 @@
         <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="2">
-        <v>20</v>
-      </c>
-      <c r="F10" s="35"/>
+      <c r="E10" s="62">
+        <v>2</v>
+      </c>
+      <c r="F10" s="21"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -3484,26 +3965,20 @@
         <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="2">
-        <v>50</v>
-      </c>
-      <c r="F11" s="35" t="s">
-        <v>95</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E11" s="62"/>
+      <c r="F11" s="21"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="2">
@@ -3511,18 +3986,16 @@
         <v>5</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="2">
-        <v>600</v>
-      </c>
-      <c r="F12" s="35"/>
+        <v>25</v>
+      </c>
+      <c r="E12" s="62"/>
+      <c r="F12" s="21"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -3534,65 +4007,23 @@
         <v>6</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="35"/>
+        <v>121</v>
+      </c>
+      <c r="E13" s="62">
+        <v>1</v>
+      </c>
+      <c r="F13" s="21"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="2">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="2">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="2">
-        <v>1</v>
-      </c>
-      <c r="F15" s="35"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="36" t="s">
-        <v>96</v>
+      <c r="J13" s="22" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -3610,8 +4041,8 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3620,7 +4051,7 @@
     <col min="1" max="1" width="6.28515625" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
     <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="8" width="10.28515625" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
     <col min="10" max="10" width="29" customWidth="1"/>
@@ -3635,26 +4066,26 @@
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="5"/>
+      <c r="C3" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="34"/>
     </row>
     <row r="4" spans="1:10">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="5"/>
+      <c r="C4" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="34"/>
     </row>
     <row r="5" spans="1:10">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="34"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
@@ -3690,22 +4121,22 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="2">
-        <f t="shared" ref="A8:A13" si="0">ROW()-7</f>
+        <f>ROW()-7</f>
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="62">
         <v>2</v>
       </c>
-      <c r="F8" s="35"/>
+      <c r="F8" s="21"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2">
         <v>1</v>
@@ -3715,22 +4146,22 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="2">
-        <f t="shared" si="0"/>
+        <f>ROW()-7</f>
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="2">
-        <v>10</v>
-      </c>
-      <c r="F9" s="35"/>
+      <c r="E9" s="62">
+        <v>20</v>
+      </c>
+      <c r="F9" s="21"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -3738,22 +4169,20 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="2">
-        <f t="shared" si="0"/>
+        <f>ROW()-7</f>
         <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="2">
-        <v>2</v>
-      </c>
-      <c r="F10" s="35"/>
+        <v>25</v>
+      </c>
+      <c r="E10" s="62"/>
+      <c r="F10" s="21"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -3761,20 +4190,20 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="2">
-        <f t="shared" si="0"/>
+        <f>ROW()-7</f>
         <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="35"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="21"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -3782,48 +4211,27 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="2">
-        <f t="shared" si="0"/>
+        <f>ROW()-7</f>
         <v>5</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="35"/>
+        <v>121</v>
+      </c>
+      <c r="E12" s="62">
+        <v>1</v>
+      </c>
+      <c r="F12" s="21"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="2">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="2">
-        <v>1</v>
-      </c>
-      <c r="F13" s="35"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="36" t="s">
-        <v>96</v>
+      <c r="J12" s="22" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -3841,8 +4249,8 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:J12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3851,7 +4259,7 @@
     <col min="1" max="1" width="6.28515625" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
     <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="8" width="10.28515625" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
     <col min="10" max="10" width="29" customWidth="1"/>
@@ -3866,26 +4274,26 @@
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="5"/>
+      <c r="C3" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="34"/>
     </row>
     <row r="4" spans="1:10">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="5"/>
+      <c r="C4" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="34"/>
     </row>
     <row r="5" spans="1:10">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="34"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
@@ -3921,22 +4329,22 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="2">
-        <f>ROW()-7</f>
+        <f t="shared" ref="A8:A13" si="0">ROW()-7</f>
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="2">
-        <v>2</v>
-      </c>
-      <c r="F8" s="35"/>
+      <c r="E8" s="62">
+        <v>4</v>
+      </c>
+      <c r="F8" s="21"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2">
         <v>1</v>
@@ -3946,43 +4354,47 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="2">
-        <f>ROW()-7</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="2">
-        <v>10</v>
-      </c>
-      <c r="F9" s="35"/>
+      <c r="E9" s="62">
+        <v>2</v>
+      </c>
+      <c r="F9" s="21"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="H9" s="2">
+        <v>2</v>
+      </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="2">
-        <f>ROW()-7</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="35"/>
+        <v>19</v>
+      </c>
+      <c r="E10" s="62">
+        <v>30</v>
+      </c>
+      <c r="F10" s="21"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -3990,20 +4402,20 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="2">
-        <f>ROW()-7</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="35"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="21"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -4011,27 +4423,48 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="2">
-        <f>ROW()-7</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="2">
-        <v>1</v>
-      </c>
-      <c r="F12" s="35"/>
+        <v>25</v>
+      </c>
+      <c r="E12" s="62"/>
+      <c r="F12" s="21"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="36" t="s">
-        <v>96</v>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" s="62">
+        <v>1</v>
+      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="22" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -4049,8 +4482,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:J13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <tabColor theme="1"/>
+  </sheetPr>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4059,7 +4495,7 @@
     <col min="1" max="1" width="6.28515625" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
     <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="8" width="10.28515625" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
     <col min="10" max="10" width="29" customWidth="1"/>
@@ -4074,26 +4510,26 @@
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="5"/>
+      <c r="C3" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="34"/>
     </row>
     <row r="4" spans="1:10">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="5"/>
+      <c r="C4" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="34"/>
     </row>
     <row r="5" spans="1:10">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="34"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
@@ -4129,22 +4565,22 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="2">
-        <f t="shared" ref="A8:A13" si="0">ROW()-7</f>
+        <f>ROW()-7</f>
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="2">
-        <v>3</v>
-      </c>
-      <c r="F8" s="35"/>
+        <v>6</v>
+      </c>
+      <c r="F8" s="21"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2">
         <v>1</v>
@@ -4154,26 +4590,24 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A9:A17" si="0">ROW()-7</f>
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="2">
-        <v>2</v>
-      </c>
-      <c r="F9" s="35"/>
+        <v>20</v>
+      </c>
+      <c r="F9" s="21"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="2">
-        <v>2</v>
-      </c>
+      <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
@@ -4183,18 +4617,18 @@
         <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="E10" s="2">
-        <v>15</v>
-      </c>
-      <c r="F10" s="35"/>
+        <v>10</v>
+      </c>
+      <c r="F10" s="21"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -4206,16 +4640,18 @@
         <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="35"/>
+        <v>19</v>
+      </c>
+      <c r="E11" s="2">
+        <v>10</v>
+      </c>
+      <c r="F11" s="21"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -4227,16 +4663,18 @@
         <v>5</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="35"/>
+        <v>19</v>
+      </c>
+      <c r="E12" s="2">
+        <v>600</v>
+      </c>
+      <c r="F12" s="21"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -4248,23 +4686,395 @@
         <v>6</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E13" s="2">
-        <v>1</v>
-      </c>
-      <c r="F13" s="35"/>
+        <v>50</v>
+      </c>
+      <c r="F13" s="21"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="36" t="s">
-        <v>96</v>
+      <c r="J13" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="21"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <mergeCells count="3">
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C3:D3"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <tabColor theme="1"/>
+  </sheetPr>
+  <dimension ref="A1:J15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="8" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="10" max="10" width="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="34"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="34"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="33"/>
+      <c r="D5" s="34"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="2">
+        <f>ROW()-7</f>
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="2">
+        <v>6</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="2">
+        <f t="shared" ref="A9:A15" si="0">ROW()-7</f>
+        <v>2</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="2">
+        <v>20</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="2">
+        <v>600</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="2">
+        <v>50</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="22" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/02_人物捜索アプリ/01_設計書/03_テーブル定義書/人物捜索アプリ_テーブル定義書.xlsx
+++ b/02_人物捜索アプリ/01_設計書/03_テーブル定義書/人物捜索アプリ_テーブル定義書.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JUSTA\Desktop\会社関係\Git\msPlanning\02_人物捜索アプリ\01_設計書\03_テーブル定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BBD73846-5421-4161-9B0A-271B44A13431}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1AB410E4-4973-4A9D-93FA-BFED01016BB5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="514" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,18 +17,20 @@
     <sheet name="テーブル一覧" sheetId="8" r:id="rId2"/>
     <sheet name="人物捜索テーブル" sheetId="9" r:id="rId3"/>
     <sheet name="情報提供テーブル" sheetId="6" r:id="rId4"/>
-    <sheet name="都道府県マスタ" sheetId="2" r:id="rId5"/>
-    <sheet name="地区マスタ" sheetId="3" r:id="rId6"/>
-    <sheet name="コードマスタ" sheetId="4" r:id="rId7"/>
-    <sheet name="指名手配テーブル" sheetId="1" r:id="rId8"/>
-    <sheet name="行方不明テーブル" sheetId="5" r:id="rId9"/>
+    <sheet name="アクセス禁止テーブル" sheetId="10" r:id="rId5"/>
+    <sheet name="メッセージテーブル" sheetId="11" r:id="rId6"/>
+    <sheet name="都道府県マスタ" sheetId="2" r:id="rId7"/>
+    <sheet name="地区マスタ" sheetId="3" r:id="rId8"/>
+    <sheet name="コードマスタ" sheetId="4" r:id="rId9"/>
+    <sheet name="指名手配テーブル" sheetId="1" r:id="rId10"/>
+    <sheet name="行方不明テーブル" sheetId="5" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="158">
   <si>
     <t>テーブル定義書</t>
   </si>
@@ -866,6 +868,218 @@
     <rPh sb="14" eb="16">
       <t>チョウセイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INT型のNULL許可を削除</t>
+    <rPh sb="3" eb="4">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キョカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除フラグに初期値(0)設定</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID系の型をINTからBIGINTに修正</t>
+    <rPh sb="2" eb="3">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BIGINT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人物捜索テーブルにインデックスを設定</t>
+    <rPh sb="16" eb="18">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全テーブルに作成者、更新者を追加</t>
+    <rPh sb="0" eb="1">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>サクセイシャ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>コウシンシャ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成者</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新者</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CREATE_USER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UPDATE_USER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクセス禁止テーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_ACCESS_BAN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿日時</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PONSTED_DATE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクセス禁止テーブルを追加</t>
+    <rPh sb="4" eb="6">
+      <t>キンシ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メッセージテーブル追加</t>
+    <rPh sb="9" eb="11">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクセス禁止テーブル</t>
+    <rPh sb="4" eb="6">
+      <t>キンシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メッセージテーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>連続投稿禁止の制御を行うテーブル</t>
+    <rPh sb="0" eb="2">
+      <t>レンゾク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キンシ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各メッセージの内容を管理するテーブル</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_MESSAGE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メッセージID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MESSAGE_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メッセージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MESSAGE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_ACCESS_BAN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メッセージテーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_MESSAGE</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1251,111 +1465,6 @@
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="5" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="5" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="5" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="5" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="5" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="5" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="4" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1365,6 +1474,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="5" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="5" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1374,23 +1564,14 @@
     <xf numFmtId="49" fontId="4" fillId="5" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="5" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="5" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="5" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -1410,6 +1591,33 @@
     <xf numFmtId="176" fontId="8" fillId="5" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1419,23 +1627,29 @@
     <xf numFmtId="49" fontId="4" fillId="5" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1847,7 +2061,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624A1ED5-21F9-4876-90D2-9BE2633D6EA6}">
-  <dimension ref="A1:AE29"/>
+  <dimension ref="A1:AE35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1924,70 +2138,70 @@
     </row>
     <row r="3" spans="1:31">
       <c r="A3" s="10"/>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="28"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="28"/>
-      <c r="X3" s="28"/>
-      <c r="Y3" s="28"/>
-      <c r="Z3" s="28"/>
-      <c r="AA3" s="28"/>
-      <c r="AB3" s="28"/>
-      <c r="AC3" s="28"/>
-      <c r="AD3" s="29"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="30"/>
+      <c r="AA3" s="30"/>
+      <c r="AB3" s="30"/>
+      <c r="AC3" s="30"/>
+      <c r="AD3" s="31"/>
       <c r="AE3" s="13"/>
     </row>
     <row r="4" spans="1:31">
       <c r="A4" s="10"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
-      <c r="AD4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="33"/>
+      <c r="Z4" s="33"/>
+      <c r="AA4" s="33"/>
+      <c r="AB4" s="33"/>
+      <c r="AC4" s="33"/>
+      <c r="AD4" s="34"/>
       <c r="AE4" s="13"/>
     </row>
     <row r="5" spans="1:31">
@@ -2159,43 +2373,43 @@
     </row>
     <row r="10" spans="1:31">
       <c r="A10" s="10"/>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="24" t="s">
+      <c r="C10" s="42"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="24" t="s">
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="25"/>
-      <c r="V10" s="25"/>
-      <c r="W10" s="25"/>
-      <c r="X10" s="25"/>
-      <c r="Y10" s="25"/>
-      <c r="Z10" s="25"/>
-      <c r="AA10" s="26"/>
-      <c r="AB10" s="24" t="s">
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="42"/>
+      <c r="X10" s="42"/>
+      <c r="Y10" s="42"/>
+      <c r="Z10" s="42"/>
+      <c r="AA10" s="43"/>
+      <c r="AB10" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="AC10" s="25"/>
-      <c r="AD10" s="26"/>
+      <c r="AC10" s="42"/>
+      <c r="AD10" s="43"/>
       <c r="AE10" s="13"/>
     </row>
     <row r="11" spans="1:31">
@@ -2211,32 +2425,32 @@
       <c r="F11" s="39"/>
       <c r="G11" s="39"/>
       <c r="H11" s="40"/>
-      <c r="I11" s="41" t="s">
+      <c r="I11" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="42"/>
-      <c r="P11" s="42"/>
-      <c r="Q11" s="42"/>
-      <c r="R11" s="42"/>
-      <c r="S11" s="42"/>
-      <c r="T11" s="42"/>
-      <c r="U11" s="42"/>
-      <c r="V11" s="42"/>
-      <c r="W11" s="42"/>
-      <c r="X11" s="42"/>
-      <c r="Y11" s="42"/>
-      <c r="Z11" s="42"/>
-      <c r="AA11" s="43"/>
-      <c r="AB11" s="44" t="s">
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="45"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="45"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="45"/>
+      <c r="W11" s="45"/>
+      <c r="X11" s="45"/>
+      <c r="Y11" s="45"/>
+      <c r="Z11" s="45"/>
+      <c r="AA11" s="46"/>
+      <c r="AB11" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="AC11" s="45"/>
-      <c r="AD11" s="46"/>
+      <c r="AC11" s="48"/>
+      <c r="AD11" s="49"/>
       <c r="AE11" s="13"/>
     </row>
     <row r="12" spans="1:31">
@@ -2252,32 +2466,32 @@
       <c r="F12" s="39"/>
       <c r="G12" s="39"/>
       <c r="H12" s="40"/>
-      <c r="I12" s="41" t="s">
+      <c r="I12" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="42"/>
-      <c r="R12" s="42"/>
-      <c r="S12" s="42"/>
-      <c r="T12" s="42"/>
-      <c r="U12" s="42"/>
-      <c r="V12" s="42"/>
-      <c r="W12" s="42"/>
-      <c r="X12" s="42"/>
-      <c r="Y12" s="42"/>
-      <c r="Z12" s="42"/>
-      <c r="AA12" s="43"/>
-      <c r="AB12" s="44" t="s">
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="45"/>
+      <c r="U12" s="45"/>
+      <c r="V12" s="45"/>
+      <c r="W12" s="45"/>
+      <c r="X12" s="45"/>
+      <c r="Y12" s="45"/>
+      <c r="Z12" s="45"/>
+      <c r="AA12" s="46"/>
+      <c r="AB12" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="AC12" s="45"/>
-      <c r="AD12" s="46"/>
+      <c r="AC12" s="48"/>
+      <c r="AD12" s="49"/>
       <c r="AE12" s="13"/>
     </row>
     <row r="13" spans="1:31">
@@ -2293,268 +2507,268 @@
       <c r="F13" s="39"/>
       <c r="G13" s="39"/>
       <c r="H13" s="40"/>
-      <c r="I13" s="41" t="s">
+      <c r="I13" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="42"/>
-      <c r="S13" s="42"/>
-      <c r="T13" s="42"/>
-      <c r="U13" s="42"/>
-      <c r="V13" s="42"/>
-      <c r="W13" s="42"/>
-      <c r="X13" s="42"/>
-      <c r="Y13" s="42"/>
-      <c r="Z13" s="42"/>
-      <c r="AA13" s="43"/>
-      <c r="AB13" s="44" t="s">
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="45"/>
+      <c r="V13" s="45"/>
+      <c r="W13" s="45"/>
+      <c r="X13" s="45"/>
+      <c r="Y13" s="45"/>
+      <c r="Z13" s="45"/>
+      <c r="AA13" s="46"/>
+      <c r="AB13" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="AC13" s="45"/>
-      <c r="AD13" s="46"/>
+      <c r="AC13" s="48"/>
+      <c r="AD13" s="49"/>
       <c r="AE13" s="13"/>
     </row>
     <row r="14" spans="1:31" ht="12" customHeight="1">
       <c r="A14" s="10"/>
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="80" t="s">
         <v>105</v>
       </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="50">
+      <c r="C14" s="81"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="83">
         <v>43303</v>
       </c>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="53" t="s">
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="54"/>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="54"/>
-      <c r="R14" s="54"/>
-      <c r="S14" s="54"/>
-      <c r="T14" s="54"/>
-      <c r="U14" s="54"/>
-      <c r="V14" s="54"/>
-      <c r="W14" s="54"/>
-      <c r="X14" s="54"/>
-      <c r="Y14" s="54"/>
-      <c r="Z14" s="54"/>
-      <c r="AA14" s="55"/>
-      <c r="AB14" s="79" t="s">
+      <c r="J14" s="75"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="75"/>
+      <c r="M14" s="75"/>
+      <c r="N14" s="75"/>
+      <c r="O14" s="75"/>
+      <c r="P14" s="75"/>
+      <c r="Q14" s="75"/>
+      <c r="R14" s="75"/>
+      <c r="S14" s="75"/>
+      <c r="T14" s="75"/>
+      <c r="U14" s="75"/>
+      <c r="V14" s="75"/>
+      <c r="W14" s="75"/>
+      <c r="X14" s="75"/>
+      <c r="Y14" s="75"/>
+      <c r="Z14" s="75"/>
+      <c r="AA14" s="76"/>
+      <c r="AB14" s="77" t="s">
         <v>80</v>
       </c>
-      <c r="AC14" s="80"/>
-      <c r="AD14" s="81"/>
+      <c r="AC14" s="78"/>
+      <c r="AD14" s="79"/>
       <c r="AE14" s="13"/>
     </row>
     <row r="15" spans="1:31">
       <c r="A15" s="10"/>
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="C15" s="68"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="70">
+      <c r="C15" s="51"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="53">
         <v>43303</v>
       </c>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="64" t="s">
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="56" t="s">
         <v>126</v>
       </c>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="65"/>
-      <c r="N15" s="65"/>
-      <c r="O15" s="65"/>
-      <c r="P15" s="65"/>
-      <c r="Q15" s="65"/>
-      <c r="R15" s="65"/>
-      <c r="S15" s="65"/>
-      <c r="T15" s="65"/>
-      <c r="U15" s="65"/>
-      <c r="V15" s="65"/>
-      <c r="W15" s="65"/>
-      <c r="X15" s="65"/>
-      <c r="Y15" s="65"/>
-      <c r="Z15" s="65"/>
-      <c r="AA15" s="66"/>
-      <c r="AB15" s="82"/>
-      <c r="AC15" s="83"/>
-      <c r="AD15" s="84"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="57"/>
+      <c r="R15" s="57"/>
+      <c r="S15" s="57"/>
+      <c r="T15" s="57"/>
+      <c r="U15" s="57"/>
+      <c r="V15" s="57"/>
+      <c r="W15" s="57"/>
+      <c r="X15" s="57"/>
+      <c r="Y15" s="57"/>
+      <c r="Z15" s="57"/>
+      <c r="AA15" s="58"/>
+      <c r="AB15" s="59"/>
+      <c r="AC15" s="60"/>
+      <c r="AD15" s="61"/>
       <c r="AE15" s="13"/>
     </row>
     <row r="16" spans="1:31">
       <c r="A16" s="10"/>
-      <c r="B16" s="67" t="s">
+      <c r="B16" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="C16" s="68"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="70">
+      <c r="C16" s="51"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="53">
         <v>43303</v>
       </c>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="64" t="s">
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="J16" s="65"/>
-      <c r="K16" s="65"/>
-      <c r="L16" s="65"/>
-      <c r="M16" s="65"/>
-      <c r="N16" s="65"/>
-      <c r="O16" s="65"/>
-      <c r="P16" s="65"/>
-      <c r="Q16" s="65"/>
-      <c r="R16" s="65"/>
-      <c r="S16" s="65"/>
-      <c r="T16" s="65"/>
-      <c r="U16" s="65"/>
-      <c r="V16" s="65"/>
-      <c r="W16" s="65"/>
-      <c r="X16" s="65"/>
-      <c r="Y16" s="65"/>
-      <c r="Z16" s="65"/>
-      <c r="AA16" s="66"/>
-      <c r="AB16" s="82"/>
-      <c r="AC16" s="83"/>
-      <c r="AD16" s="84"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="57"/>
+      <c r="S16" s="57"/>
+      <c r="T16" s="57"/>
+      <c r="U16" s="57"/>
+      <c r="V16" s="57"/>
+      <c r="W16" s="57"/>
+      <c r="X16" s="57"/>
+      <c r="Y16" s="57"/>
+      <c r="Z16" s="57"/>
+      <c r="AA16" s="58"/>
+      <c r="AB16" s="59"/>
+      <c r="AC16" s="60"/>
+      <c r="AD16" s="61"/>
       <c r="AE16" s="13"/>
     </row>
     <row r="17" spans="1:31">
       <c r="A17" s="10"/>
-      <c r="B17" s="67" t="s">
+      <c r="B17" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="C17" s="68"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="70">
+      <c r="C17" s="51"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="53">
         <v>43303</v>
       </c>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="64" t="s">
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="65"/>
-      <c r="M17" s="65"/>
-      <c r="N17" s="65"/>
-      <c r="O17" s="65"/>
-      <c r="P17" s="65"/>
-      <c r="Q17" s="65"/>
-      <c r="R17" s="65"/>
-      <c r="S17" s="65"/>
-      <c r="T17" s="65"/>
-      <c r="U17" s="65"/>
-      <c r="V17" s="65"/>
-      <c r="W17" s="65"/>
-      <c r="X17" s="65"/>
-      <c r="Y17" s="65"/>
-      <c r="Z17" s="65"/>
-      <c r="AA17" s="66"/>
-      <c r="AB17" s="82"/>
-      <c r="AC17" s="83"/>
-      <c r="AD17" s="84"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="57"/>
+      <c r="R17" s="57"/>
+      <c r="S17" s="57"/>
+      <c r="T17" s="57"/>
+      <c r="U17" s="57"/>
+      <c r="V17" s="57"/>
+      <c r="W17" s="57"/>
+      <c r="X17" s="57"/>
+      <c r="Y17" s="57"/>
+      <c r="Z17" s="57"/>
+      <c r="AA17" s="58"/>
+      <c r="AB17" s="59"/>
+      <c r="AC17" s="60"/>
+      <c r="AD17" s="61"/>
       <c r="AE17" s="13"/>
     </row>
     <row r="18" spans="1:31">
       <c r="A18" s="10"/>
-      <c r="B18" s="67" t="s">
+      <c r="B18" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="C18" s="68"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="70">
+      <c r="C18" s="51"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="53">
         <v>43303</v>
       </c>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="64" t="s">
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="65"/>
-      <c r="N18" s="65"/>
-      <c r="O18" s="65"/>
-      <c r="P18" s="65"/>
-      <c r="Q18" s="65"/>
-      <c r="R18" s="65"/>
-      <c r="S18" s="65"/>
-      <c r="T18" s="65"/>
-      <c r="U18" s="65"/>
-      <c r="V18" s="65"/>
-      <c r="W18" s="65"/>
-      <c r="X18" s="65"/>
-      <c r="Y18" s="65"/>
-      <c r="Z18" s="65"/>
-      <c r="AA18" s="66"/>
-      <c r="AB18" s="82"/>
-      <c r="AC18" s="83"/>
-      <c r="AD18" s="84"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="57"/>
+      <c r="Q18" s="57"/>
+      <c r="R18" s="57"/>
+      <c r="S18" s="57"/>
+      <c r="T18" s="57"/>
+      <c r="U18" s="57"/>
+      <c r="V18" s="57"/>
+      <c r="W18" s="57"/>
+      <c r="X18" s="57"/>
+      <c r="Y18" s="57"/>
+      <c r="Z18" s="57"/>
+      <c r="AA18" s="58"/>
+      <c r="AB18" s="59"/>
+      <c r="AC18" s="60"/>
+      <c r="AD18" s="61"/>
       <c r="AE18" s="13"/>
     </row>
     <row r="19" spans="1:31">
       <c r="A19" s="10"/>
-      <c r="B19" s="73" t="s">
+      <c r="B19" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="C19" s="74"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="76">
+      <c r="C19" s="63"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="65">
         <v>43303</v>
       </c>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="56" t="s">
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="57"/>
-      <c r="P19" s="57"/>
-      <c r="Q19" s="57"/>
-      <c r="R19" s="57"/>
-      <c r="S19" s="57"/>
-      <c r="T19" s="57"/>
-      <c r="U19" s="57"/>
-      <c r="V19" s="57"/>
-      <c r="W19" s="57"/>
-      <c r="X19" s="57"/>
-      <c r="Y19" s="57"/>
-      <c r="Z19" s="57"/>
-      <c r="AA19" s="58"/>
-      <c r="AB19" s="85"/>
-      <c r="AC19" s="86"/>
-      <c r="AD19" s="87"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="69"/>
+      <c r="N19" s="69"/>
+      <c r="O19" s="69"/>
+      <c r="P19" s="69"/>
+      <c r="Q19" s="69"/>
+      <c r="R19" s="69"/>
+      <c r="S19" s="69"/>
+      <c r="T19" s="69"/>
+      <c r="U19" s="69"/>
+      <c r="V19" s="69"/>
+      <c r="W19" s="69"/>
+      <c r="X19" s="69"/>
+      <c r="Y19" s="69"/>
+      <c r="Z19" s="69"/>
+      <c r="AA19" s="70"/>
+      <c r="AB19" s="71"/>
+      <c r="AC19" s="72"/>
+      <c r="AD19" s="73"/>
       <c r="AE19" s="13"/>
     </row>
     <row r="20" spans="1:31">
@@ -2570,382 +2784,601 @@
       <c r="F20" s="39"/>
       <c r="G20" s="39"/>
       <c r="H20" s="40"/>
-      <c r="I20" s="41" t="s">
+      <c r="I20" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="42"/>
-      <c r="O20" s="42"/>
-      <c r="P20" s="42"/>
-      <c r="Q20" s="42"/>
-      <c r="R20" s="42"/>
-      <c r="S20" s="42"/>
-      <c r="T20" s="42"/>
-      <c r="U20" s="42"/>
-      <c r="V20" s="42"/>
-      <c r="W20" s="42"/>
-      <c r="X20" s="42"/>
-      <c r="Y20" s="42"/>
-      <c r="Z20" s="42"/>
-      <c r="AA20" s="43"/>
-      <c r="AB20" s="44" t="s">
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="45"/>
+      <c r="R20" s="45"/>
+      <c r="S20" s="45"/>
+      <c r="T20" s="45"/>
+      <c r="U20" s="45"/>
+      <c r="V20" s="45"/>
+      <c r="W20" s="45"/>
+      <c r="X20" s="45"/>
+      <c r="Y20" s="45"/>
+      <c r="Z20" s="45"/>
+      <c r="AA20" s="46"/>
+      <c r="AB20" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="AC20" s="45"/>
-      <c r="AD20" s="46"/>
+      <c r="AC20" s="48"/>
+      <c r="AD20" s="49"/>
       <c r="AE20" s="13"/>
     </row>
     <row r="21" spans="1:31">
       <c r="A21" s="10"/>
-      <c r="B21" s="35"/>
+      <c r="B21" s="35" t="s">
+        <v>129</v>
+      </c>
       <c r="C21" s="36"/>
       <c r="D21" s="37"/>
-      <c r="E21" s="38"/>
+      <c r="E21" s="38">
+        <v>43338</v>
+      </c>
       <c r="F21" s="39"/>
       <c r="G21" s="39"/>
       <c r="H21" s="40"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="42"/>
-      <c r="P21" s="42"/>
-      <c r="Q21" s="42"/>
-      <c r="R21" s="42"/>
-      <c r="S21" s="42"/>
-      <c r="T21" s="42"/>
-      <c r="U21" s="42"/>
-      <c r="V21" s="42"/>
-      <c r="W21" s="42"/>
-      <c r="X21" s="42"/>
-      <c r="Y21" s="42"/>
-      <c r="Z21" s="42"/>
-      <c r="AA21" s="43"/>
-      <c r="AB21" s="44"/>
-      <c r="AC21" s="45"/>
-      <c r="AD21" s="46"/>
+      <c r="I21" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="45"/>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="45"/>
+      <c r="S21" s="45"/>
+      <c r="T21" s="45"/>
+      <c r="U21" s="45"/>
+      <c r="V21" s="45"/>
+      <c r="W21" s="45"/>
+      <c r="X21" s="45"/>
+      <c r="Y21" s="45"/>
+      <c r="Z21" s="45"/>
+      <c r="AA21" s="46"/>
+      <c r="AB21" s="47"/>
+      <c r="AC21" s="48"/>
+      <c r="AD21" s="49"/>
       <c r="AE21" s="13"/>
     </row>
     <row r="22" spans="1:31">
       <c r="A22" s="10"/>
-      <c r="B22" s="35"/>
+      <c r="B22" s="35" t="s">
+        <v>129</v>
+      </c>
       <c r="C22" s="36"/>
       <c r="D22" s="37"/>
-      <c r="E22" s="38"/>
+      <c r="E22" s="38">
+        <v>43338</v>
+      </c>
       <c r="F22" s="39"/>
       <c r="G22" s="39"/>
       <c r="H22" s="40"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="42"/>
-      <c r="P22" s="42"/>
-      <c r="Q22" s="42"/>
-      <c r="R22" s="42"/>
-      <c r="S22" s="42"/>
-      <c r="T22" s="42"/>
-      <c r="U22" s="42"/>
-      <c r="V22" s="42"/>
-      <c r="W22" s="42"/>
-      <c r="X22" s="42"/>
-      <c r="Y22" s="42"/>
-      <c r="Z22" s="42"/>
-      <c r="AA22" s="43"/>
-      <c r="AB22" s="44"/>
-      <c r="AC22" s="45"/>
-      <c r="AD22" s="46"/>
+      <c r="I22" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="45"/>
+      <c r="R22" s="45"/>
+      <c r="S22" s="45"/>
+      <c r="T22" s="45"/>
+      <c r="U22" s="45"/>
+      <c r="V22" s="45"/>
+      <c r="W22" s="45"/>
+      <c r="X22" s="45"/>
+      <c r="Y22" s="45"/>
+      <c r="Z22" s="45"/>
+      <c r="AA22" s="46"/>
+      <c r="AB22" s="47"/>
+      <c r="AC22" s="48"/>
+      <c r="AD22" s="49"/>
       <c r="AE22" s="13"/>
     </row>
     <row r="23" spans="1:31">
       <c r="A23" s="10"/>
-      <c r="B23" s="35"/>
+      <c r="B23" s="35" t="s">
+        <v>129</v>
+      </c>
       <c r="C23" s="36"/>
       <c r="D23" s="37"/>
-      <c r="E23" s="38"/>
+      <c r="E23" s="38">
+        <v>43338</v>
+      </c>
       <c r="F23" s="39"/>
       <c r="G23" s="39"/>
       <c r="H23" s="40"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="42"/>
-      <c r="P23" s="42"/>
-      <c r="Q23" s="42"/>
-      <c r="R23" s="42"/>
-      <c r="S23" s="42"/>
-      <c r="T23" s="42"/>
-      <c r="U23" s="42"/>
-      <c r="V23" s="42"/>
-      <c r="W23" s="42"/>
-      <c r="X23" s="42"/>
-      <c r="Y23" s="42"/>
-      <c r="Z23" s="42"/>
-      <c r="AA23" s="43"/>
-      <c r="AB23" s="44"/>
-      <c r="AC23" s="45"/>
-      <c r="AD23" s="46"/>
+      <c r="I23" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="45"/>
+      <c r="P23" s="45"/>
+      <c r="Q23" s="45"/>
+      <c r="R23" s="45"/>
+      <c r="S23" s="45"/>
+      <c r="T23" s="45"/>
+      <c r="U23" s="45"/>
+      <c r="V23" s="45"/>
+      <c r="W23" s="45"/>
+      <c r="X23" s="45"/>
+      <c r="Y23" s="45"/>
+      <c r="Z23" s="45"/>
+      <c r="AA23" s="46"/>
+      <c r="AB23" s="47"/>
+      <c r="AC23" s="48"/>
+      <c r="AD23" s="49"/>
       <c r="AE23" s="13"/>
     </row>
     <row r="24" spans="1:31">
       <c r="A24" s="10"/>
-      <c r="B24" s="35"/>
+      <c r="B24" s="35" t="s">
+        <v>129</v>
+      </c>
       <c r="C24" s="36"/>
       <c r="D24" s="37"/>
-      <c r="E24" s="38"/>
+      <c r="E24" s="38">
+        <v>43338</v>
+      </c>
       <c r="F24" s="39"/>
       <c r="G24" s="39"/>
       <c r="H24" s="40"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
-      <c r="S24" s="42"/>
-      <c r="T24" s="42"/>
-      <c r="U24" s="42"/>
-      <c r="V24" s="42"/>
-      <c r="W24" s="42"/>
-      <c r="X24" s="42"/>
-      <c r="Y24" s="42"/>
-      <c r="Z24" s="42"/>
-      <c r="AA24" s="43"/>
-      <c r="AB24" s="44"/>
-      <c r="AC24" s="45"/>
-      <c r="AD24" s="46"/>
+      <c r="I24" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="45"/>
+      <c r="P24" s="45"/>
+      <c r="Q24" s="45"/>
+      <c r="R24" s="45"/>
+      <c r="S24" s="45"/>
+      <c r="T24" s="45"/>
+      <c r="U24" s="45"/>
+      <c r="V24" s="45"/>
+      <c r="W24" s="45"/>
+      <c r="X24" s="45"/>
+      <c r="Y24" s="45"/>
+      <c r="Z24" s="45"/>
+      <c r="AA24" s="46"/>
+      <c r="AB24" s="47"/>
+      <c r="AC24" s="48"/>
+      <c r="AD24" s="49"/>
       <c r="AE24" s="13"/>
     </row>
     <row r="25" spans="1:31">
       <c r="A25" s="10"/>
-      <c r="B25" s="35"/>
+      <c r="B25" s="35" t="s">
+        <v>129</v>
+      </c>
       <c r="C25" s="36"/>
       <c r="D25" s="37"/>
-      <c r="E25" s="38"/>
+      <c r="E25" s="38">
+        <v>43338</v>
+      </c>
       <c r="F25" s="39"/>
       <c r="G25" s="39"/>
       <c r="H25" s="40"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="42"/>
-      <c r="O25" s="42"/>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="42"/>
-      <c r="R25" s="42"/>
-      <c r="S25" s="42"/>
-      <c r="T25" s="42"/>
-      <c r="U25" s="42"/>
-      <c r="V25" s="42"/>
-      <c r="W25" s="42"/>
-      <c r="X25" s="42"/>
-      <c r="Y25" s="42"/>
-      <c r="Z25" s="42"/>
-      <c r="AA25" s="43"/>
-      <c r="AB25" s="44"/>
-      <c r="AC25" s="45"/>
-      <c r="AD25" s="46"/>
+      <c r="I25" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="45"/>
+      <c r="Q25" s="45"/>
+      <c r="R25" s="45"/>
+      <c r="S25" s="45"/>
+      <c r="T25" s="45"/>
+      <c r="U25" s="45"/>
+      <c r="V25" s="45"/>
+      <c r="W25" s="45"/>
+      <c r="X25" s="45"/>
+      <c r="Y25" s="45"/>
+      <c r="Z25" s="45"/>
+      <c r="AA25" s="46"/>
+      <c r="AB25" s="47"/>
+      <c r="AC25" s="48"/>
+      <c r="AD25" s="49"/>
       <c r="AE25" s="13"/>
     </row>
     <row r="26" spans="1:31">
       <c r="A26" s="10"/>
-      <c r="B26" s="35"/>
+      <c r="B26" s="35" t="s">
+        <v>129</v>
+      </c>
       <c r="C26" s="36"/>
       <c r="D26" s="37"/>
-      <c r="E26" s="38"/>
+      <c r="E26" s="38">
+        <v>43338</v>
+      </c>
       <c r="F26" s="39"/>
       <c r="G26" s="39"/>
       <c r="H26" s="40"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
-      <c r="N26" s="42"/>
-      <c r="O26" s="42"/>
-      <c r="P26" s="42"/>
-      <c r="Q26" s="42"/>
-      <c r="R26" s="42"/>
-      <c r="S26" s="42"/>
-      <c r="T26" s="42"/>
-      <c r="U26" s="42"/>
-      <c r="V26" s="42"/>
-      <c r="W26" s="42"/>
-      <c r="X26" s="42"/>
-      <c r="Y26" s="42"/>
-      <c r="Z26" s="42"/>
-      <c r="AA26" s="43"/>
-      <c r="AB26" s="44"/>
-      <c r="AC26" s="45"/>
-      <c r="AD26" s="46"/>
+      <c r="I26" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="45"/>
+      <c r="S26" s="45"/>
+      <c r="T26" s="45"/>
+      <c r="U26" s="45"/>
+      <c r="V26" s="45"/>
+      <c r="W26" s="45"/>
+      <c r="X26" s="45"/>
+      <c r="Y26" s="45"/>
+      <c r="Z26" s="45"/>
+      <c r="AA26" s="46"/>
+      <c r="AB26" s="47"/>
+      <c r="AC26" s="48"/>
+      <c r="AD26" s="49"/>
       <c r="AE26" s="13"/>
     </row>
     <row r="27" spans="1:31">
       <c r="A27" s="10"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="38"/>
+      <c r="B27" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="C27" s="36"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="38">
+        <v>43338</v>
+      </c>
       <c r="F27" s="39"/>
       <c r="G27" s="39"/>
       <c r="H27" s="40"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="42"/>
-      <c r="O27" s="42"/>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="42"/>
-      <c r="R27" s="42"/>
-      <c r="S27" s="42"/>
-      <c r="T27" s="42"/>
-      <c r="U27" s="42"/>
-      <c r="V27" s="42"/>
-      <c r="W27" s="42"/>
-      <c r="X27" s="42"/>
-      <c r="Y27" s="42"/>
-      <c r="Z27" s="42"/>
-      <c r="AA27" s="43"/>
-      <c r="AB27" s="44"/>
-      <c r="AC27" s="45"/>
-      <c r="AD27" s="46"/>
+      <c r="I27" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="J27" s="45"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="45"/>
+      <c r="P27" s="45"/>
+      <c r="Q27" s="45"/>
+      <c r="R27" s="45"/>
+      <c r="S27" s="45"/>
+      <c r="T27" s="45"/>
+      <c r="U27" s="45"/>
+      <c r="V27" s="45"/>
+      <c r="W27" s="45"/>
+      <c r="X27" s="45"/>
+      <c r="Y27" s="45"/>
+      <c r="Z27" s="45"/>
+      <c r="AA27" s="46"/>
+      <c r="AB27" s="47"/>
+      <c r="AC27" s="48"/>
+      <c r="AD27" s="49"/>
       <c r="AE27" s="13"/>
     </row>
     <row r="28" spans="1:31">
       <c r="A28" s="10"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="11"/>
-      <c r="T28" s="11"/>
-      <c r="U28" s="11"/>
-      <c r="V28" s="11"/>
-      <c r="W28" s="11"/>
-      <c r="X28" s="11"/>
-      <c r="Y28" s="11"/>
-      <c r="Z28" s="11"/>
-      <c r="AA28" s="11"/>
-      <c r="AB28" s="11"/>
-      <c r="AC28" s="11"/>
-      <c r="AD28" s="11"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="45"/>
+      <c r="O28" s="45"/>
+      <c r="P28" s="45"/>
+      <c r="Q28" s="45"/>
+      <c r="R28" s="45"/>
+      <c r="S28" s="45"/>
+      <c r="T28" s="45"/>
+      <c r="U28" s="45"/>
+      <c r="V28" s="45"/>
+      <c r="W28" s="45"/>
+      <c r="X28" s="45"/>
+      <c r="Y28" s="45"/>
+      <c r="Z28" s="45"/>
+      <c r="AA28" s="46"/>
+      <c r="AB28" s="47"/>
+      <c r="AC28" s="48"/>
+      <c r="AD28" s="49"/>
       <c r="AE28" s="13"/>
     </row>
     <row r="29" spans="1:31">
-      <c r="A29" s="14"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="18"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="17"/>
-      <c r="S29" s="17"/>
-      <c r="T29" s="17"/>
-      <c r="U29" s="17"/>
-      <c r="V29" s="17"/>
-      <c r="W29" s="17"/>
-      <c r="X29" s="17"/>
-      <c r="Y29" s="17"/>
-      <c r="Z29" s="17"/>
-      <c r="AA29" s="17"/>
-      <c r="AB29" s="17"/>
-      <c r="AC29" s="17"/>
-      <c r="AD29" s="17"/>
-      <c r="AE29" s="15"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="45"/>
+      <c r="N29" s="45"/>
+      <c r="O29" s="45"/>
+      <c r="P29" s="45"/>
+      <c r="Q29" s="45"/>
+      <c r="R29" s="45"/>
+      <c r="S29" s="45"/>
+      <c r="T29" s="45"/>
+      <c r="U29" s="45"/>
+      <c r="V29" s="45"/>
+      <c r="W29" s="45"/>
+      <c r="X29" s="45"/>
+      <c r="Y29" s="45"/>
+      <c r="Z29" s="45"/>
+      <c r="AA29" s="46"/>
+      <c r="AB29" s="47"/>
+      <c r="AC29" s="48"/>
+      <c r="AD29" s="49"/>
+      <c r="AE29" s="13"/>
+    </row>
+    <row r="30" spans="1:31">
+      <c r="A30" s="10"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="45"/>
+      <c r="N30" s="45"/>
+      <c r="O30" s="45"/>
+      <c r="P30" s="45"/>
+      <c r="Q30" s="45"/>
+      <c r="R30" s="45"/>
+      <c r="S30" s="45"/>
+      <c r="T30" s="45"/>
+      <c r="U30" s="45"/>
+      <c r="V30" s="45"/>
+      <c r="W30" s="45"/>
+      <c r="X30" s="45"/>
+      <c r="Y30" s="45"/>
+      <c r="Z30" s="45"/>
+      <c r="AA30" s="46"/>
+      <c r="AB30" s="47"/>
+      <c r="AC30" s="48"/>
+      <c r="AD30" s="49"/>
+      <c r="AE30" s="13"/>
+    </row>
+    <row r="31" spans="1:31">
+      <c r="A31" s="10"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="45"/>
+      <c r="N31" s="45"/>
+      <c r="O31" s="45"/>
+      <c r="P31" s="45"/>
+      <c r="Q31" s="45"/>
+      <c r="R31" s="45"/>
+      <c r="S31" s="45"/>
+      <c r="T31" s="45"/>
+      <c r="U31" s="45"/>
+      <c r="V31" s="45"/>
+      <c r="W31" s="45"/>
+      <c r="X31" s="45"/>
+      <c r="Y31" s="45"/>
+      <c r="Z31" s="45"/>
+      <c r="AA31" s="46"/>
+      <c r="AB31" s="47"/>
+      <c r="AC31" s="48"/>
+      <c r="AD31" s="49"/>
+      <c r="AE31" s="13"/>
+    </row>
+    <row r="32" spans="1:31">
+      <c r="A32" s="10"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="45"/>
+      <c r="O32" s="45"/>
+      <c r="P32" s="45"/>
+      <c r="Q32" s="45"/>
+      <c r="R32" s="45"/>
+      <c r="S32" s="45"/>
+      <c r="T32" s="45"/>
+      <c r="U32" s="45"/>
+      <c r="V32" s="45"/>
+      <c r="W32" s="45"/>
+      <c r="X32" s="45"/>
+      <c r="Y32" s="45"/>
+      <c r="Z32" s="45"/>
+      <c r="AA32" s="46"/>
+      <c r="AB32" s="47"/>
+      <c r="AC32" s="48"/>
+      <c r="AD32" s="49"/>
+      <c r="AE32" s="13"/>
+    </row>
+    <row r="33" spans="1:31">
+      <c r="A33" s="10"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="45"/>
+      <c r="N33" s="45"/>
+      <c r="O33" s="45"/>
+      <c r="P33" s="45"/>
+      <c r="Q33" s="45"/>
+      <c r="R33" s="45"/>
+      <c r="S33" s="45"/>
+      <c r="T33" s="45"/>
+      <c r="U33" s="45"/>
+      <c r="V33" s="45"/>
+      <c r="W33" s="45"/>
+      <c r="X33" s="45"/>
+      <c r="Y33" s="45"/>
+      <c r="Z33" s="45"/>
+      <c r="AA33" s="46"/>
+      <c r="AB33" s="47"/>
+      <c r="AC33" s="48"/>
+      <c r="AD33" s="49"/>
+      <c r="AE33" s="13"/>
+    </row>
+    <row r="34" spans="1:31">
+      <c r="A34" s="10"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="11"/>
+      <c r="V34" s="11"/>
+      <c r="W34" s="11"/>
+      <c r="X34" s="11"/>
+      <c r="Y34" s="11"/>
+      <c r="Z34" s="11"/>
+      <c r="AA34" s="11"/>
+      <c r="AB34" s="11"/>
+      <c r="AC34" s="11"/>
+      <c r="AD34" s="11"/>
+      <c r="AE34" s="13"/>
+    </row>
+    <row r="35" spans="1:31">
+      <c r="A35" s="14"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="17"/>
+      <c r="S35" s="17"/>
+      <c r="T35" s="17"/>
+      <c r="U35" s="17"/>
+      <c r="V35" s="17"/>
+      <c r="W35" s="17"/>
+      <c r="X35" s="17"/>
+      <c r="Y35" s="17"/>
+      <c r="Z35" s="17"/>
+      <c r="AA35" s="17"/>
+      <c r="AB35" s="17"/>
+      <c r="AC35" s="17"/>
+      <c r="AD35" s="17"/>
+      <c r="AE35" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="73">
-    <mergeCell ref="B3:AD4"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="AB10:AD10"/>
-    <mergeCell ref="I10:AA10"/>
-    <mergeCell ref="I11:AA11"/>
-    <mergeCell ref="AB11:AD11"/>
-    <mergeCell ref="I13:AA13"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="AB13:AD13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="I12:AA12"/>
-    <mergeCell ref="AB12:AD12"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="I26:AA26"/>
-    <mergeCell ref="AB26:AD26"/>
+  <mergeCells count="97">
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="I29:AA29"/>
+    <mergeCell ref="AB29:AD29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="I30:AA30"/>
+    <mergeCell ref="AB30:AD30"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="E27:H27"/>
     <mergeCell ref="I27:AA27"/>
     <mergeCell ref="AB27:AD27"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="I24:AA24"/>
-    <mergeCell ref="AB24:AD24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="I25:AA25"/>
-    <mergeCell ref="AB25:AD25"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="I22:AA22"/>
-    <mergeCell ref="AB22:AD22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="I23:AA23"/>
-    <mergeCell ref="AB23:AD23"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="I20:AA20"/>
-    <mergeCell ref="AB20:AD20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="I21:AA21"/>
-    <mergeCell ref="AB21:AD21"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="I28:AA28"/>
+    <mergeCell ref="AB28:AD28"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="I16:AA16"/>
+    <mergeCell ref="AB16:AD16"/>
+    <mergeCell ref="I14:AA14"/>
+    <mergeCell ref="AB14:AD14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="I15:AA15"/>
+    <mergeCell ref="AB15:AD15"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:H14"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="E17:H17"/>
     <mergeCell ref="I17:AA17"/>
@@ -2958,18 +3391,63 @@
     <mergeCell ref="E18:H18"/>
     <mergeCell ref="I18:AA18"/>
     <mergeCell ref="AB18:AD18"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="I16:AA16"/>
-    <mergeCell ref="AB16:AD16"/>
-    <mergeCell ref="I14:AA14"/>
-    <mergeCell ref="AB14:AD14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="I15:AA15"/>
-    <mergeCell ref="AB15:AD15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="I20:AA20"/>
+    <mergeCell ref="AB20:AD20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="I21:AA21"/>
+    <mergeCell ref="AB21:AD21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="I22:AA22"/>
+    <mergeCell ref="AB22:AD22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="I23:AA23"/>
+    <mergeCell ref="AB23:AD23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="I24:AA24"/>
+    <mergeCell ref="AB24:AD24"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="I31:AA31"/>
+    <mergeCell ref="AB31:AD31"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="I25:AA25"/>
+    <mergeCell ref="AB25:AD25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="I26:AA26"/>
+    <mergeCell ref="AB26:AD26"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="I32:AA32"/>
+    <mergeCell ref="AB32:AD32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="I33:AA33"/>
+    <mergeCell ref="AB33:AD33"/>
+    <mergeCell ref="I13:AA13"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="AB13:AD13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="I12:AA12"/>
+    <mergeCell ref="AB12:AD12"/>
+    <mergeCell ref="B3:AD4"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="AB10:AD10"/>
+    <mergeCell ref="I10:AA10"/>
+    <mergeCell ref="I11:AA11"/>
+    <mergeCell ref="AB11:AD11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2977,1511 +3455,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4801AC7B-06DF-4D42-A00E-E6E3B8BB793B}">
-  <dimension ref="B3:E16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="12"/>
-  <cols>
-    <col min="2" max="2" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:5">
-      <c r="B3" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="19">
-        <f t="shared" ref="B4:B10" si="0">ROW()-3</f>
-        <v>1</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="19">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="19">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="19">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="19">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="59" t="s">
-        <v>112</v>
-      </c>
-      <c r="C9" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="59" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="59" t="s">
-        <v>112</v>
-      </c>
-      <c r="C10" s="60" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" s="59" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="59" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-    </row>
-    <row r="16" spans="2:5">
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C9" location="指名手配テーブル!A1" display="指名手配テーブル" xr:uid="{87AAD112-0BFC-44D1-8738-CB155DA496A3}"/>
-    <hyperlink ref="C10" location="行方不明テーブル!A1" display="行方不明テーブル" xr:uid="{8B1C6B46-C325-4DAB-9698-CFAA2E0919F4}"/>
-    <hyperlink ref="C5" location="情報提供テーブル!A1" display="情報提供テーブル" xr:uid="{65DC42BC-B36D-4E7F-9863-E23D3786DAB4}"/>
-    <hyperlink ref="C6" location="都道府県マスタ!A1" display="都道府県マスタ" xr:uid="{7DF0C86A-91E2-48B9-91D8-3FF351372C5D}"/>
-    <hyperlink ref="C7" location="地区マスタ!A1" display="地区マスタ" xr:uid="{3DB208F5-45E0-43F0-8555-A2D040091D99}"/>
-    <hyperlink ref="C8" location="コードマスタ!A1" display="コードマスタ" xr:uid="{C3509747-4091-4CCB-AA46-D90AFB040686}"/>
-    <hyperlink ref="C4" location="人物捜索テーブル!A1" display="人物捜索テーブル" xr:uid="{8685CFE2-CF1F-4DF3-817F-25814F689FE5}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B5D46C-61E6-4538-9FC8-07D599732CC1}">
-  <dimension ref="A1:J18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12"/>
-  <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="29" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="D3" s="34"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="D4" s="34"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="34"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="2">
-        <f>ROW()-7</f>
-        <v>1</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E8" s="62"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2">
-        <v>1</v>
-      </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="2">
-        <f t="shared" ref="A9:A18" si="0">ROW()-7</f>
-        <v>2</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="62">
-        <v>40</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B10" s="61" t="s">
-        <v>117</v>
-      </c>
-      <c r="C10" s="61" t="s">
-        <v>118</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="63">
-        <v>1</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E11" s="62"/>
-      <c r="F11" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="62">
-        <v>40</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="2">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="62">
-        <v>600</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="2">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E14" s="62" t="s">
-        <v>124</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="2">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="62">
-        <v>2</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="2">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="62"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="62"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="2">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E18" s="62">
-        <v>1</v>
-      </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="22" t="s">
-        <v>94</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12"/>
-  <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="8" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="29" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="34"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="34"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="34"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="2">
-        <f>ROW()-7</f>
-        <v>1</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E8" s="62"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2">
-        <v>1</v>
-      </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="2">
-        <f t="shared" ref="A9:A15" si="0">ROW()-7</f>
-        <v>2</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="62">
-        <v>60</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="62">
-        <v>40</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E11" s="62" t="s">
-        <v>125</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="62">
-        <v>600</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="2">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="62"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="2">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="62"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="2">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E15" s="62">
-        <v>1</v>
-      </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="22" t="s">
-        <v>94</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="3">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12"/>
-  <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="8" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="29" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="34"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="34"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="34"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="2">
-        <f t="shared" ref="A8:A13" si="0">ROW()-7</f>
-        <v>1</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="62">
-        <v>2</v>
-      </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2">
-        <v>1</v>
-      </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="62">
-        <v>20</v>
-      </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="62">
-        <v>2</v>
-      </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="62"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="62"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="2">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E13" s="62">
-        <v>1</v>
-      </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="22" t="s">
-        <v>94</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="3">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:J12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12"/>
-  <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="8" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="29" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="34"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="34"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="34"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="2">
-        <f>ROW()-7</f>
-        <v>1</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="62">
-        <v>2</v>
-      </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2">
-        <v>1</v>
-      </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="2">
-        <f>ROW()-7</f>
-        <v>2</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="62">
-        <v>20</v>
-      </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="2">
-        <f>ROW()-7</f>
-        <v>3</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="62"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="2">
-        <f>ROW()-7</f>
-        <v>4</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="62"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="2">
-        <f>ROW()-7</f>
-        <v>5</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E12" s="62">
-        <v>1</v>
-      </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="22" t="s">
-        <v>94</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="3">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:J13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12"/>
-  <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="8" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="29" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="34"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="34"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="34"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="2">
-        <f t="shared" ref="A8:A13" si="0">ROW()-7</f>
-        <v>1</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="62">
-        <v>4</v>
-      </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2">
-        <v>1</v>
-      </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="62">
-        <v>2</v>
-      </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2">
-        <v>2</v>
-      </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="62">
-        <v>30</v>
-      </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="62"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="62"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="2">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E13" s="62">
-        <v>1</v>
-      </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="22" t="s">
-        <v>94</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="3">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="1"/>
@@ -4510,26 +3484,26 @@
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="34"/>
+      <c r="D3" s="87"/>
     </row>
     <row r="4" spans="1:10">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="34"/>
+      <c r="D4" s="87"/>
     </row>
     <row r="5" spans="1:10">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="34"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="87"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
@@ -4809,7 +3783,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="1"/>
@@ -4838,26 +3812,26 @@
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="34"/>
+      <c r="D3" s="87"/>
     </row>
     <row r="4" spans="1:10">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="86" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="34"/>
+      <c r="D4" s="87"/>
     </row>
     <row r="5" spans="1:10">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="34"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="87"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
@@ -5071,6 +4045,2282 @@
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <mergeCells count="3">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4801AC7B-06DF-4D42-A00E-E6E3B8BB793B}">
+  <dimension ref="B3:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="12"/>
+  <cols>
+    <col min="2" max="2" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5">
+      <c r="B3" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="19">
+        <f t="shared" ref="B4:B10" si="0">ROW()-3</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="19">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="19">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="19">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="19">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="19">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="19">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C11" location="指名手配テーブル!A1" display="指名手配テーブル" xr:uid="{87AAD112-0BFC-44D1-8738-CB155DA496A3}"/>
+    <hyperlink ref="C12" location="行方不明テーブル!A1" display="行方不明テーブル" xr:uid="{8B1C6B46-C325-4DAB-9698-CFAA2E0919F4}"/>
+    <hyperlink ref="C5" location="情報提供テーブル!A1" display="情報提供テーブル" xr:uid="{65DC42BC-B36D-4E7F-9863-E23D3786DAB4}"/>
+    <hyperlink ref="C8" location="都道府県マスタ!A1" display="都道府県マスタ" xr:uid="{7DF0C86A-91E2-48B9-91D8-3FF351372C5D}"/>
+    <hyperlink ref="C9" location="地区マスタ!A1" display="地区マスタ" xr:uid="{3DB208F5-45E0-43F0-8555-A2D040091D99}"/>
+    <hyperlink ref="C10" location="コードマスタ!A1" display="コードマスタ" xr:uid="{C3509747-4091-4CCB-AA46-D90AFB040686}"/>
+    <hyperlink ref="C4" location="人物捜索テーブル!A1" display="人物捜索テーブル" xr:uid="{8685CFE2-CF1F-4DF3-817F-25814F689FE5}"/>
+    <hyperlink ref="C6" location="アクセス禁止テーブル!A1" display="アクセス禁止テーブル" xr:uid="{D16F244C-1AEB-47EB-B3BF-FD92A1BB3D34}"/>
+    <hyperlink ref="C7" location="メッセージテーブル!A1" display="メッセージテーブル" xr:uid="{E6BD7AA6-5AE4-4BA0-BE9D-8EADB450F06B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B5D46C-61E6-4538-9FC8-07D599732CC1}">
+  <dimension ref="A1:J20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="10" max="10" width="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="86" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="87"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="86" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="87"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="86"/>
+      <c r="D5" s="87"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="2">
+        <f>ROW()-7</f>
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="27"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="2">
+        <f t="shared" ref="A9:A20" si="0">ROW()-7</f>
+        <v>2</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="27">
+        <v>40</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="28">
+        <v>1</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" s="27"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="27">
+        <v>40</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2">
+        <v>2</v>
+      </c>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="27">
+        <v>600</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="27">
+        <v>2</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="27">
+        <v>40</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="27"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="27">
+        <v>40</v>
+      </c>
+      <c r="F18" s="21"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="27"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E20" s="27">
+        <v>1</v>
+      </c>
+      <c r="F20" s="21"/>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="8" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="10" max="10" width="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="86" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="87"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="86" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="87"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="86"/>
+      <c r="D5" s="87"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="2">
+        <f>ROW()-7</f>
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="27"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="2">
+        <f t="shared" ref="A9:A17" si="0">ROW()-7</f>
+        <v>2</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="27">
+        <v>60</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="27">
+        <v>40</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="27">
+        <v>600</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="27">
+        <v>40</v>
+      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="27"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="27">
+        <v>40</v>
+      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="27"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E17" s="27">
+        <v>1</v>
+      </c>
+      <c r="F17" s="21"/>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <mergeCells count="3">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C981A2EC-FEE1-4F45-9545-656CA858C9C1}">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="8" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="10" max="10" width="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="86" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" s="87"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="86" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="87"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="86"/>
+      <c r="D5" s="87"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="2">
+        <f t="shared" ref="A8:A14" si="0">ROW()-7</f>
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="27"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="27"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2">
+        <v>2</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="27">
+        <v>40</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="27"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="27">
+        <v>40</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="27"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14" s="27">
+        <v>1</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <mergeCells count="3">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E9D31AD-9F45-4746-87BD-2A3CE4D071FE}">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="8" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="10" max="10" width="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="86" t="s">
+        <v>156</v>
+      </c>
+      <c r="D3" s="87"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="86" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" s="87"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="86"/>
+      <c r="D5" s="87"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="2">
+        <f t="shared" ref="A8:A14" si="0">ROW()-7</f>
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="27">
+        <v>15</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="27">
+        <v>400</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="27">
+        <v>40</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="27"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="27">
+        <v>40</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="27"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14" s="27">
+        <v>1</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <mergeCells count="3">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:J15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="8" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="10" max="10" width="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="86" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="87"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="86" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="87"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="86"/>
+      <c r="D5" s="87"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="2">
+        <f t="shared" ref="A8:A15" si="0">ROW()-7</f>
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="27">
+        <v>2</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="27">
+        <v>20</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="27">
+        <v>2</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="27">
+        <v>40</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="27"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="27">
+        <v>40</v>
+      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="27"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E15" s="27">
+        <v>1</v>
+      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <mergeCells count="3">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="8" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="10" max="10" width="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="86" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="87"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="86" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="87"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="86"/>
+      <c r="D5" s="87"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="2">
+        <f>ROW()-7</f>
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="27">
+        <v>2</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="2">
+        <f>ROW()-7</f>
+        <v>2</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="27">
+        <v>20</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="2">
+        <f t="shared" ref="A10" si="0">ROW()-7</f>
+        <v>3</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="27">
+        <v>40</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="2">
+        <f>ROW()-7</f>
+        <v>4</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="27"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="2">
+        <f t="shared" ref="A12" si="1">ROW()-7</f>
+        <v>5</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="27">
+        <v>40</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="2">
+        <f>ROW()-7</f>
+        <v>6</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="27"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="2">
+        <f>ROW()-7</f>
+        <v>7</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14" s="27">
+        <v>1</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <mergeCells count="3">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:J15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="8" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="10" max="10" width="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="86" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="87"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="87"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="86"/>
+      <c r="D5" s="87"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="2">
+        <f t="shared" ref="A8:A15" si="0">ROW()-7</f>
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="27">
+        <v>4</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="27">
+        <v>2</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2">
+        <v>2</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="27">
+        <v>30</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="27">
+        <v>40</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="27"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="27">
+        <v>40</v>
+      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="27"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E15" s="27">
+        <v>1</v>
+      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="22" t="s">
